--- a/config/mapper.xlsx
+++ b/config/mapper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\dataSync\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DA0D46-0C24-4F96-BD5E-4FB81080B038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4E99F3-0075-4611-B2ED-C6006CC61D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,6 +1191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,7 +1246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1306,6 +1312,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1585,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1663,16 +1681,16 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4"/>
@@ -1687,7 +1705,7 @@
       <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="16" t="s">
         <v>15</v>
       </c>
     </row>

--- a/config/mapper.xlsx
+++ b/config/mapper.xlsx
@@ -1,34 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouyangminglei\Documents\WXWork\1688853196467699\Cache\File\2023-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\dataSync\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2F8CCC-ACF6-40DF-8F7D-71EB766ADFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A76446-89FC-4D46-9E99-4D0E51B0531E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表映射" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">表映射!$A$1:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">表映射!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="248">
   <si>
     <t>rldd.RL_GYSGL_KDGL</t>
-  </si>
-  <si>
-    <t>rldd.RL_ZHGL_SCXX_MTSCHQ</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTING_ADDTARGE</t>
@@ -442,13 +439,6 @@
 Myjm_Code</t>
   </si>
   <si>
-    <t>Id, 
-Ccmx_Id#Fa_Id
-Ccmx_Id#Ccmx_Id, 
-Cyfa_Bm, 
-Myjm_Code</t>
-  </si>
-  <si>
     <t>RLDD.Rl_Ldgk_Spot_Myjm_Detail</t>
   </si>
   <si>
@@ -1200,142 +1190,7 @@
     <t>RL_FUEL_RLDD.Rl_Zhgl_Rlhb_Dcjcxxgl_Zb</t>
   </si>
   <si>
-    <t xml:space="preserve">
- ID,
-         FOREIGNID,
-         JHMZ,
-         RZ,
-         LF,
-         HFF,
-          QT,
-          YJZCRQ,
-         NZCG,
-         JHCM,
-         JHHC,
-         JHZHL, 
-         HTSX,
-         GYSID,
-         GYSNAME,
-         JHCGL,
-         NBHCBM,
-         YJDCRQ,
-         MDG,
-         SJHCBM,
-         HCLAYER,
-         DYDW,
-        YJDGSJ,
-        SJDGSJ,
-        CBTBSJ,
-         BW,
-         KBSJ,
-         KGSJ,
-         WGSJ,
-         LGSJ,
-         SJZHL,
-         SJMZ,
-         QNET,
-         MT,
-         AAR,
-         VAR,
-         STAR,
-         STD,
-         ST,
-         WCQK,
-         SJDCRQ,
-         XQDW,
-         XQDWID,
-         SJZHL_DC,
-         SJMZ_DC,
-         QNET_DC,
-         MT_DC,
-         AAR_DC,
-         VAR_DC,
-         STAR_DC,
-         STD_DC,
-         ST_DC,
-         CREATEUSER, 
-         CREATEORGID,
-         RQ,
-         CID,
-         LCRQ,
-         JHCMID,
-         HF,
-         QS,
-         BCLD,
-         KJ,
-         YF,
-         DCJ,
-         BMDJ,
-         KDID,
-         VARIETYID,
-         KDNAME,
-         VARIETY,
-         HTH,
-         YSDWID,
-         YSDW,
-         REMARK,
-         YJLGSJ,
-         ZF,
-         YJDCSJ,
-         YJLCSJ,
-         YSHTH,
-         RLHTH,
-         CD,
-         UPDATETIME,
-         CGJHXMID,
-         HRD,
-         SCMCGQKJJG,
-         MXDCXSHTJ,
-         KBDRPCSCJ,
-         DYSCJ,
-         MYD,
-         MYDMZ,
-         SZGK,
-         ZGXHSL,
-         ZGLJRZ,
-         ZGLJLF,
-         ZGLJHRD,
-         ZGDWH,
-         HXDCQK,
-         ISGKBHCZ,
-         ISCBASDG,
-         ISCBZHZC,
-         DYYCYY,
-         ZHG,
-         DDZGSJ,
-         DGCCJHTS,
-         ZGKBSJ,
-         ZGLGSJ,
-         ZGYS,
-         ZGYBCS,
-         ZGSJZZL,
-         ZGRZ,
-         ZGLF,
-         ZGHRD, 
-         XGYS,
-         XGSL,
-         RZ XGRZ,
-         LF XGLF,
-         HRD XGHRD,
-         XGBZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ, NZCG, JHCM, JHHC, JHZHL, HTSX, GYSID, GYSNAME, JHCGL, NBHCBM, YJDCRQ, MDG, SJHCBM, HCLAYER, DYDW, YJDGSJ, SJDGSJ, CBTBSJ, BW, KBSJ, KGSJ, WGSJ, LGSJ,
- SJZHL, SJMZ, QNET, MT, AAR, VAR, STAR, STD, ST, WCQK, SJDCRQ, XQDW, XQDWID, SJZHL_DC, SJMZ_DC, QNET_DC, MT_DC, AAR_DC, VAR_DC, STAR_DC, STD_DC, ST_DC, CREATEUSER,  CREATEORGID, RQ, CID, LCRQ, JHCMID, 
- HF, QS, BCLD, KJ, YF, DCJ, BMDJ, KDID, VARIETYID, KDNAME, VARIETY, HTH, YSDWID, YSDW, REMARK, YJLGSJ, ZF, YJDCSJ, YJLCSJ, YSHTH, RLHTH, CD, UPDATETIME, CGJHXMID, HRD, SCMCGQKJJG, MXDCXSHTJ, KBDRPCSCJ, 
- DYSCJ, MYD, MYDMZ, SZGK, ZGXHSL, ZGLJRZ, ZGLJLF, ZGLJHRD, ZGDWH, HXDCQK, ISGKBHCZ, ISCBASDG, ISCBZHZC, DYYCYY, ZHG, DDZGSJ, DGCCJHTS, ZGKBSJ, ZGLGSJ, ZGYS, ZGYBCS, ZGSJZZL, ZGRZ, ZGLF, ZGHRD,  XGYS, XGSL, XGRZ, XGLF, XGHRD, XGBZ </t>
-  </si>
-  <si>
-    <t>rldd.rl_rljy_xsmpcjhrbb_zb</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_DYGL_WATERCOALPLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID, WEIGHTING_ID, DATA_STATE, START_DATE, END_DATE, MINE_ID, FROM_STATION, 
-GOODS_ID, PRODUCT_ID, COAL_KIND_ID, LM_SUPPLIER_ID, CUSTOMER_ID, DATA_ID, 
-LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, 
-LAST_UPDATE_LOGIN </t>
   </si>
   <si>
     <t>ID, WEIGHTING_ID, DATA_STATE, START_DATE, END_DATE, MINE_ID, FROM_STATION, GOODS_ID, PRODUCT_ID, COAL_KIND_ID, 
@@ -1343,14 +1198,6 @@
   </si>
   <si>
     <t xml:space="preserve"> rldd.fm_weightint_elemet</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTINT_ELEMET</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, WEIGHTING_ID, LEFT_VALUE, LEFT_SYMBOL, LABORATORY_INDEX, RIGHT_SYMBOL, 
-RIGHT_VALUE, DATA_STATE, DATA_ID, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, 
-CREATED_BY, LAST_UPDATE_LOGIN </t>
   </si>
   <si>
     <t>ID, WEIGHTING_ID, LEFT_VALUE, LEFT_SYMBOL, LABORATORY_INDEX, RIGHT_SYMBOL, RIGHT_VALUE, DATA_STATE, DATA_ID, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN</t>
@@ -1376,10 +1223,6 @@
     <t xml:space="preserve"> RL_FUEL_RLDD.RL_CONTRACT_WEIGHTING</t>
   </si>
   <si>
-    <t xml:space="preserve"> ID, MAIN_ID, COST_ID, PRICE, UNIT, DATA_STATE, CAR_TYPE, DATA_ID, 
-LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID, MAIN_ID, COST_ID, PRICE, UNIT, DATA_STATE, CAR_TYPE, DATA_ID, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, 
 CREATED_BY, LAST_UPDATE_LOGIN, TAX_RATE </t>
   </si>
@@ -1390,12 +1233,6 @@
     <t>rl_fuel_rldd.RL_CONTRACT_COST_DETAIL</t>
   </si>
   <si>
-    <t xml:space="preserve"> ID, CONTRACT_ID, ORGAN_ID, SUPPLIER_ID, TRANSPORT, MINE_ID, FROM_STATION,
- DISTANCE, TO_STATION, START_DATE, END_DATE, DEDUCT_METHOD, SOURCE_ID, DATA_ID, 
- DATA_STATE, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY,
-  LAST_UPDATE_LOGIN  </t>
-  </si>
-  <si>
     <t>ID, CONTRACT_ID, ORGAN_ID, SUPPLIER_ID, TRANSPORT, MINE_ID, FROM_STATION, DISTANCE, TO_STATION, START_DATE, END_DATE, DEDUCT_METHOD, SOURCE_ID, DATA_ID, DATA_STATE, LAST_UPDATE_DATE, 
 LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN</t>
   </si>
@@ -1406,11 +1243,6 @@
     <t>RL_FUEL_RLDD.RL_CONTRACT_COST_MAIN</t>
   </si>
   <si>
-    <t xml:space="preserve"> ID, RL_CONTRACT_ID, YS_CONTRACT_ID, SHIPPER, IS_EXIST, ORGAN_ID, DATA_STATE, 
-IS_BINDING, IS_DEDUCT_LOSS, DEDUCT_METHOD, DATA_ID, LAST_UPDATE_DATE, LAST_UPDATED_BY, 
-CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN </t>
-  </si>
-  <si>
     <t>ID, RL_CONTRACT_ID, YS_CONTRACT_ID, SHIPPER, IS_EXIST, ORGAN_ID, DATA_STATE, IS_BINDING, IS_DEDUCT_LOSS, DEDUCT_METHOD, DATA_ID, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN</t>
   </si>
   <si>
@@ -1420,41 +1252,16 @@
     <t>RL_FUEL_RLDD.RL_CONTRACT_RELATION</t>
   </si>
   <si>
-    <t xml:space="preserve"> ID, ORGID, DYRBID, GYSID, GYSNAME, KDID, KDNAME, MZ, YSFS, JHCGL, HTH, 
-CCHC, BZ, YSDWID, CM, FZID, FZ, FRL, HFF, LF, KJ, YF, QTFY, DCJ, HSBD, 
-YXMC, YXMQ, LMCS, FZSJ, BCLD, HF, QS, ZF,  VARIETYID, VARIETY, 
-SERIALNUMBER, ENABLED, BD, REMARK, CMID, ONROADPLANID, ISLS, HTID, YSHTH </t>
-  </si>
-  <si>
     <t xml:space="preserve">RLDD.RL_DYGL_DYRBJH </t>
   </si>
   <si>
     <t xml:space="preserve">RL_FUEL_RLDD.RL_DYGL_DYRBJH </t>
   </si>
   <si>
-    <t xml:space="preserve"> 
- ID, ORGID, ORGNAME,  CREATEUSER, CREATETIME,  
- STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_SBStatus, RQ, SL, PJRZ, PJLF, BMDJ, DCKJFS, DCKJFSVALUE, BRDYQKJB, 
- PJHFF, SSBSJ, ESBSJ,  BMDJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- ID, ORGID, ORGNAME,  CREATE_USER, CREATE_TIME,  
- STATUS, RQ, SL, PJRZ, PJLF, BMDJ, DCKJFS, DCKJFSVALUE, BRDYQKJB, 
- PJHFF, SSBSJ, ESBSJ,  BMDJ</t>
-  </si>
-  <si>
     <t>RLDD.RL_DYGL_DYRB</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_DYGL_DYRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARENT_ID, VALUATION_ID, LEFT_VALUE, LEFT_SYMBOL, LABORATORY_INDEX, RIGHT_SYMBOL, 
-RIGHT_VALUE, BASE_PIRCE, BASE_UNIT, FLOATING_START, FLOATING_POINT, FLOATING_PRICE, 
-FLOATING_PRICE_UNIT, KL_METHOD, KC_WEIGHT, KC_UNIT, ITEM_ID, YS_PRICE, ORGAN_ID, 
-DATA_STATE, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN, 
-CLAUSE_NO, KL_WEIGHT, YS_UNIT, CAL_MODE, CAR_TYPE, ID, DATA_ID </t>
   </si>
   <si>
     <t>PARENT_ID, VALUATION_ID, LEFT_VALUE, LEFT_SYMBOL, LABORATORY_INDEX, RIGHT_SYMBOL, 
@@ -1470,13 +1277,6 @@
     <t>RL_FUEL_RLDD.RL_CONTRACT_CLAUSE</t>
   </si>
   <si>
-    <t xml:space="preserve"> TEMPLATES_ID, CONTRACT_ID, BASE_PRICE, BASE_UNIT, Q_CODE, Q_VALUE, M_CODE, M_VALUE, 
-S_CODE, S_VALUE, A_CODE, A_VALUE, V_CODE, V_VALUE, ST_VALUE, ORGAN_ID, DATA_STATE, 
-LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN, 
-VALUATION_NO, VALUATION_MODLE, YS_MONEY, YS_UNIT, DATA_ID, IS_PASS_WEIGHTING, 
-TAX_RATE, ID, SOURCE_ID </t>
-  </si>
-  <si>
     <t>TEMPLATES_ID, CONTRACT_ID, BASE_PRICE, BASE_UNIT, Q_CODE, Q_VALUE, M_CODE, M_VALUE, 
 S_CODE, S_VALUE, A_CODE, A_VALUE, V_CODE, V_VALUE, ST_VALUE, ORGAN_ID, DATA_STATE, 
 LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN, 
@@ -1490,30 +1290,10 @@
     <t xml:space="preserve"> RL_FUEL_RLDD.RL_CONTRACT_VALUATION</t>
   </si>
   <si>
-    <t xml:space="preserve"> VALUATION_ID, PLAN_ID, VALUATION_NO, FROM_STATION, TO_STATION, GOODS_ID, PRODUCT_ID,
- COAL_KIND_ID, SUPPLIER_ID, MINE_ID, DATA_STATE, LAST_UPDATE_DATE, LAST_UPDATED_BY,
-  CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN, LM_SUPPLIER_ID, START_DATE, END_DATE,
-   DATA_ID, BALANCE_NO, ID, PURCHASING_AREA, CONTRACT_ID, IS_DECLARE, COUNTRY_ORIGIN, TRANSPORT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VALUATION_ID, PLAN_ID, VALUATION_NO, FROM_STATION, TO_STATION, GOODS_ID, PRODUCT_ID,
- COAL_KIND_ID, SUPPLIER_ID, MINE_ID, DATA_STATE, LAST_UPDATE_DATE, LAST_UPDATED_BY,
-  CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN, LM_SUPPLIER_ID, START_DATE, END_DATE,
-   DATA_ID, BALANCE_NO, ID, PURCHASING_AREA, CONTRACT_ID, IS_DECLARE, COUNTRY_ORIGIN, TRANSPORT</t>
-  </si>
-  <si>
     <t>RLDD.FM_CONTRACT_PLAN_SUPPLY</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_CONTRACT_PLAN_SUPPLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONTRACT_ID, ORGAN_ID, JAN, FEB, MAR, APR, MAY, JUN, JUL, AUG, SEPT, OCT, NOV,
- DEC, MEMO, DATA_STATE, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, 
- CREATED_BY, LAST_UPDATE_LOGIN, CONTENT_ID, FROM_STATION, TO_STATION, 
- GOODS_ID, PRODUCT_ID, COAL_KIND_ID, SUPPLIER_ID, MINE_ID, DATA_ID, 
- SUPERVISE_TYPE, TRANSPORT_PROPERTY, BUY_MODE, ID, SOURCE_ID, IYEAR, 
- PRESUM, SUPERVISE_SUM, TRANSPORT_SUM</t>
   </si>
   <si>
     <t xml:space="preserve"> CONTRACT_ID, ORGAN_ID, JAN, FEB, MAR, APR, MAY, JUN, JUL, AUG, SEPT, OCT, NOV,
@@ -1528,77 +1308,6 @@
   </si>
   <si>
     <t xml:space="preserve">RL_FUEL_RLDD.RL_CONTRACT_PLAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       CHANGED_CONTRACT_ID,
-       CONTRACT_TYPE,
-       ORDER_GOODS_MODE,
-       CONTRACT_TAB,
-       FIRST_PARTY_ID,
-       SECOND_PARTY_ID, 
-       BILL_NO, 
-       VERSION_NO,
-       NAME,
-       SIGN_PLACE,
-       SIGN_DATE,
-       START_DATE,
-       END_DATE,
-       TRANSPORT,   
-       AUDIT_STATE, 
-       ORGAN_ID,
-       DATA_STATE,
-       LAST_UPDATE_DATE,
-       LAST_UPDATED_BY,
-       CREATION_DATE,
-       CREATED_BY,    
-       DATA_ID,
-       CONTRACT_CATEGORY,
-       BUY_MODE,
-       BUY_TYPE, 
-       WEIGHT_ACCORDING,
-       ASSAY_ACCORDING,
-       IS_LOSS,
-       LOSS, 
-       PRICE_TYPE,
-       BILLING_MODE,  
-       RECEIVING_TYPE, 
-       IS_BEAR,
-       COUNTERSIGNED_CONTENT,
-       PROFIT_EVALUATION,
-       BUSINESS_TYPE,
-       MANAGE_TYPE,
-       CONTRACT_MAIN_ID,
-       BALANCE_DEPTCODE,
-       BIDDING_NO,   
-       BIDDING_ID,
-       MATCH_DATE_TYPE,
-       ID,
-       STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, 
-       ORGLAYER=r_Dm_t_Orc.f_Get_Orgidtoorglayer,
-       SPLX,
-       SOURCE_ID, 
-       HTTK, 
-       WSYBZMBSM,
-       UNIFY_RESULTMSG,
-       PAYMENT_METHOD, 
-       STANDARD_NUMBER,
-       STANDARD_QUALITY,
-       CURRENCY_UNIT,
-       SUPPLY_CHAIN_UNIT,
-       ISLAW,
-       IN_ID,
-       ATTR1,
-       IF_ACCOUNT_BY_GOODS,
-       IF_DLRL_CONTRACT,
-       REMOVE_BPM_TIME,
-       REMOVE_ACCOUNT,
-       FIRST_AUDIT_DATE, 
-       IF_DZCG,  
-         SQJS,
-       IS_PRICE,  
-       OPTYPE,  
-       GX_STATUS,
-       IS_EDIT </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1679,67 +1388,16 @@
     <t>RL_FUEL_RLDD.RL_CONTRACT</t>
   </si>
   <si>
-    <t xml:space="preserve"> ID, ORGID, JHYF, JHKC, SJKC, YHKC, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME,
- ORGLAYER, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, TZKC, ZJYY, KYTS, LJHY, SYHKC, SFZX, BGBB, BGYY, BGSQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, ORGID, JHYF, JHKC, SJKC, YHKC, CREATOR_ID, CREATOR_DATE, MODIFY_ID, MODIFY_DATE,
- ORGLAYER, STATUS, TZKC, ZJYY, KYTS, LJHY, SYHKC, SFZX, BGBB, BGYY, BGSQ </t>
-  </si>
-  <si>
-    <t>RLDD.RL_KCGL_KCJH</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_KCGL_KCJH</t>
   </si>
   <si>
-    <t>ID, YDCG_ID, GYS_ID, HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, CGLX, CGQY,   YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Ysfs, YSSX, YJHL, MZ, FRL, HFF, LF,
-KJ, YF, QTF, DCJ, HSBD, BHSBD, BZ, CZSJ, FENQI_ID, QCKC, QMKC,   DZID, FZID, 
-SFFGWBA, DJFS, CGFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cgfs, MYDQ, MJSL, YFSL, KDID,   RNO , VARIETYID, 
-PLANTYPE, FDBJXY, COALTYPE, COALTYPEDC, REMARK, COALTYPEVIEW, HTID, FUELMXID, CREATOR_DATE</t>
-  </si>
-  <si>
-    <t>ID, YDCG_ID, GYS_ID, HTSX, CGLX, CGQY,   YSFS, YSSX, YJHL, MZ, FRL, HFF, LF,
-KJ, YF, QTF, DCJ, HSBD, BHSBD, BZ, CZSJ, FENQI_ID, QCKC, QMKC,   DZID, FZID, 
-SFFGWBA, DJFS, CGFS, MYDQ, MJSL, YFSL, KDID,   RNO , VARIETYID, 
-PLANTYPE, FDBJXY, COALTYPE, COALTYPEDC, REMARK, COALTYPEVIEW, HTID, FUELMXID, CREATOR_DATE</t>
-  </si>
-  <si>
     <t xml:space="preserve">RL_FUEL_RLDD.RL_JH_YDCGMX </t>
   </si>
   <si>
-    <t xml:space="preserve">  ID, COMP_ID,ORGLAYER=r_Dm_t_Orc.f_Get_Orgidtoorglayer,  CGYF, YJHSL, YJHRZ, YJHHFF, YJHLF, CZR, CZSJ, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, BZ, CGNF,  
- CREATEUSER, CREATETIME,  YJHYL, YDXSMCGZL, NDJJ, SCJJ, RCHSBD, RCBHSBD,  
- QYWZB, SCMZB, JJZB, DDGYSZB, SFBG, BGBB, SFZX, BGYY, JHBH, BGSQ, JZCGZB, JZCGSL, 
- YDFDBJXY, DCFJID, FGSFJID, DCCGSM, FGSCGSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ID, ORGID,ORGID#ORGLAYER, CGYF, YJHSL, YJHRZ, YJHHFF, YJHLF, CZR, CZSJ, STATUS, BZ, CGNF,  
- CREATOR_ID,  CREATOR_DATE,   YJHSL, YDXSMCGZL, NDJJ, SCJJ, RCHSBD, RCBHSBD,  
- QYWZB, SCMZB, JJZB, DDGYSZB, SFBG, BGBB, SFZX, BGYY, JHBH, BGSQ, JZCGZB, JZCGSL, 
- YDFDBJXY, DCFJID, FGSFJID, DCCGSM, FGSCGSM </t>
-  </si>
-  <si>
-    <t>RLDD.RL_JH_YDCG</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_JH_YDCG</t>
   </si>
   <si>
-    <t xml:space="preserve"> ID, YDXQ_ID, FENQI_ID, FDL, FDBMH, FDBML, GRL, GRBMH, GRBML, CCSH, QTY, REZHI, HFF, 
-LIUFEN, YCKC, YMKC, XQSL, HTSX, CGQY, RNO, GDBMH, CLBDC, YDZHSWDJ, GDL, GDBML, MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RLDD.RL_JH_YDXQMX</t>
-  </si>
-  <si>
     <t>rl_fuel_rldd.RL_JH_YDXQMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, COMP_ID, XQYF, FDL, FDBMH, FDBML, GRL, GRBMH, GRBML, CCSH, QTY, REZHI, HFF, 
-LIUFEN, YCKC, YMKC, XQSL, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME, ORGID, ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,
- STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, JTPFYMKC, SFBG, BGBB, SFZX, BGYY, JHBH, BGSQ, GDBMH, CLBDC, YDZHSWDJ, GDBML,
-  GDL, SMOKE, SO2, NOX </t>
   </si>
   <si>
     <t xml:space="preserve"> ID, ORGID, XQYF, FDL, FDBMH, FDBML, GRL, GRBMH, GRBML, CCSH, QTY, REZHI, HFF, 
@@ -1748,27 +1406,7 @@
   GDL, SMOKE, SO2, NOX</t>
   </si>
   <si>
-    <t xml:space="preserve"> RLDD.RL_JH_YDXQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RL_FUEL_RLDD.RL_JH_YDXQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, NDXQ_ID, FENQI_ID, FD_BNWC, FD_BNYJ, FD_MNYJ, DM_BNHY, DM_BNYJ, GR_BNHY, GR_BNYJ,
-GR_MNYJ, DM_MNYJ, REZHI, HFF, LIUFEN, HUIFEN, SHUIFEN, HRD, KMXS, XQSL, RNO, BNMYJKC, 
-MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ</t>
-  </si>
-  <si>
-    <t>RLDD.RL_JH_NDXQMX</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_JH_NDXQMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, COMP_ID, XQNF, FD_BNWC, FD_BNYJ, FD_MNYJ, DM_BNHY, DM_BNYJ, DM_MNYJ, GR_BNHY, 
-GR_BNYJ, GR_MNYJ, REZHI, HFF, LIUFEN, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME, ORGID, 
-ORGLAYER, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, XQSL, SFZX, BGBB, BGYY, BGSQ, BNMYJKC, MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ 
- </t>
   </si>
   <si>
     <t xml:space="preserve"> ID, ORGID, XQNF, FD_BNWC, FD_BNYJ, FD_MNYJ, DM_BNHY, DM_BNYJ, DM_MNYJ, GR_BNHY, 
@@ -1776,32 +1414,10 @@
 ORGLAYER, STATUS, XQSL, SFZX, BGBB, BGYY, BGSQ, BNMYJKC, MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ </t>
   </si>
   <si>
-    <t xml:space="preserve">RLDD.RL_JH_NDXQ </t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_JH_NDXQ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ID, NDCG_ID, GYS_ID, HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, QN_YCL, QN_FRL, QN_CKJ, QN_HSRCBD, MN_FRL,
- MN_CKJ, MN_HSRCBD, YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Ysfs, GYS_NAME, CGLX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cglx, CGQY, MYDQ, CGFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cgfs, DXL, RNO, KDID, 
- KDNAME, VARIETYID, VARIETY, 
- HTH, DJJZ,TZZT, JHDHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, NDCG_ID, GYS_ID, DHKJ, QN_YCL, QN_FRL, QN_CKJ, QN_HSRCBD, MN_FRL, MN_CKJ, MN_HSRCBD,
- YSFS, GYS_NAME, CGLX, CGQY, MYDQ, CGFS, DXL,  KDID, KDNAME, VARIETYID, VARIETY, 
- NDHTXX_HTH, DJJZ,  TZZT, JHDHL</t>
-  </si>
-  <si>
-    <t>rldd.RL_JH_NDCGMX</t>
-  </si>
-  <si>
     <t>rl_fuel_rldd.RL_JH_NDCGMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, COMP_ID, CGNF, MN_XQL, MN_FRL, MN_CKJ, MN_HSRCBD, TBRQ, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,  ORGLAYER=r_Dm_t_Orc.f_Get_Orgidtoorglayer, 
-CREATEUSER, CREATETIME, SFZX, ZCXYML, YJDXL, BGBB, BGYY, 
-BGSQ, UPDATETIME </t>
   </si>
   <si>
     <t xml:space="preserve"> ID, COMP_ID, CGNF, MNXQL, MN_FRL, MN_CKJ, MN_HSRCBD, CREATE_TIME, STATUS,  COMP_ID#ORGLAYER,
@@ -1809,29 +1425,10 @@
 BGSQ, UPDATE_TIME</t>
   </si>
   <si>
-    <t>rldd.RL_JH_NDCG</t>
-  </si>
-  <si>
     <t>rl_fuel_rldd.RL_JH_NDCG</t>
   </si>
   <si>
-    <t xml:space="preserve"> ID, ORGID, ORGNAME, ORGLAYER, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME, 
-RQ,   CM,  CX, CD, CC, CK, ORDERNO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID,ORG_ID , ORG_NAME ,ORG_LAYER ,CREATE_USER ,CREATE_TIME ,UPDATE_USER ,  
-RQ, CM, CX, CD,  CC, CK,ORDERNO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> rl_fuel_mc.RL_GYL_WL_YSXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ, NZCG, JHCM, JHHC, JHZHL, BZ, HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, 
-GYSID,  JHCGL, NBHCBM, YJDCRQ, MDG, SJHCBM, HCLAYER, DYDW, YJDGSJ, SJDGSJ, CBTBSJ, 
-BW, KBSJ, KGSJ, WGSJ, LGSJ, SJZHL, SJMZ, QNET, MT, AAR, VAR, STAR, STD, ST, WCQK, SJDCRQ, 
-XQDW, XQDWID, SJZHL_DC, SJMZ_DC, QNET_DC, MT_DC, AAR_DC, VAR_DC, STAR_DC, STD_DC, ST_DC, 
-STATUS, CREATEUSER, CREATEORGID, LCRQ, JHCMID, YJLGSJ, RLHTH, CYGYS, UPDATETIME, 
-CGJHXMID, HRD</t>
   </si>
   <si>
     <t xml:space="preserve"> ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ, NZCG, JHCM, JHHC, JHZHL, BZ, DHKJ, 
@@ -1842,39 +1439,7 @@
 YDCGMXID, HRD </t>
   </si>
   <si>
-    <t>RLDD.RL_RLJY_XSMXQJH_ZB</t>
-  </si>
-  <si>
     <t>rl_fuel_rldd.RL_JH_XSMXQJH_ZB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                             ID,
-                            CREATEUSER,
-                            CREATETIME,
-                            ORGID,
-                            ORGLAYER,
-                            STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
-                            TBRID,
-                            TBRNAME,
-                            SHRID,
-                            SHRNAME,
-                            TBSJ,
-                            TBDWID,
-                            TBDWNAME,
-                            XQYEAR,
-                            XQMONTH,
-                            XQDWID,
-                            XQDWNAME,
-                            YDFDLJH,
-                            YDGRLJH,
-                            JHYML,
-                            QCKCL,
-                            QMYJKCL,
-                            BQJHZCGL,
-                            XSMJHCGL,
-                            XQTYPE,
-                            SUMJHZHL</t>
   </si>
   <si>
     <t>ID,
@@ -1905,12 +1470,6 @@
                             SUMJHZHL</t>
   </si>
   <si>
-    <t>RLDD.RL_RLJY_XSMXQJH</t>
-  </si>
-  <si>
-    <t>rl_fuel_rldd.RL_JH_XSMXQJH</t>
-  </si>
-  <si>
     <t>ID, ORGID, GYSID, GYSNAME</t>
   </si>
   <si>
@@ -1918,41 +1477,6 @@
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_GYSGL_POWERGYS</t>
-  </si>
-  <si>
-    <t>ID,
-         ORGID,
-         ORGNAME,
-         FR,
-         DH,
-         KHH,
-         YB,
-         DZ,
-         DLR,
-         JC,
-         ZH,
-         SH,
-         CZ,
-         PYJX,
-         ISJJT,
-         ISGS,
-         DQID,
-         CGFS,
-         ZJRL,
-         XXZJQK,
-         NHML,
-         JJKC,
-         GRMJ,
-         SJMZ_QNETAR,
-         SJMZ_STD,
-         FGRKC,
-         GRL,
-         GYGR,
-         SMOKE,
-         SO2,
-         NOX,
-         JD,
-         WD</t>
   </si>
   <si>
     <t xml:space="preserve"> ID,
@@ -1996,50 +1520,10 @@
     <t>RL_FUEL_RLDD.RL_ZHGL_RLHB_DCJCXXGL</t>
   </si>
   <si>
-    <t xml:space="preserve"> MKSX,
-         ZNMKSH,
-         ZNMKBM,
-         ZNMKJC,
-         ZNMKQC,
-         SFBM,
-         ORGID,
-         ORGNAME,
-         ORGLAYER,
-         ID,
-         SFBM,
-         ZDK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKSX,
-   ZNMKSH,
-   ZNMKBM,
-   ZNMKJC,
-   ZNMKQC,
-   SFBM,
-   ORGID,
-   ORGNAME,
-   ORGLAYER,
-   ID,
-   SF,
-   IFZDK </t>
-  </si>
-  <si>
     <t xml:space="preserve"> rldd.RL_JCXX_ZNBM</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_JCXX_ZNBM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID,
-         DQNAME,
-         BM,
-         LAYER,
-         TYPE,
-         PARENTID,
-         PARENTNAME,
-         YZBM,
-         SFQY,
-         SSDQ</t>
   </si>
   <si>
     <t xml:space="preserve">ID,
@@ -2060,9 +1544,6 @@
     <t>RL_FUEL_RLDD.RL_ZHGL_AREA</t>
   </si>
   <si>
-    <t xml:space="preserve">ID, GYSID, kdid, GYSNAME, KDNAME </t>
-  </si>
-  <si>
     <t xml:space="preserve">ID, GYSID, MKXXGLID, GYSNAME, KDNAME </t>
   </si>
   <si>
@@ -2072,9 +1553,6 @@
     <t>RL_FUEL_RLDD.RL_GYSGL_GYSKD</t>
   </si>
   <si>
-    <t>ID, ZDID, ZDNAME, KDNAME, KDID, CREATETIME, TYPE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ID, ZDID, ZDNAME, KDNAME, KDID, CREATETIME, TYPE</t>
   </si>
   <si>
@@ -2082,24 +1560,6 @@
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_GYSGL_KDZD</t>
-  </si>
-  <si>
-    <t>ID,
-         NAME,
-         BM,
-         PARENTID,
-         PARENTNAME,
-         DQNAME,
-         TYPE,
-         XZ,
-         JD,
-         WD,
-         SFQY,
-         SFLS,
-         MAXTRANSPORT,
-         AVGTRANSPORT,
-         LAYER,
-         DQID</t>
   </si>
   <si>
     <t xml:space="preserve"> ID,
@@ -2124,33 +1584,6 @@
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_ZHGL_STATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> o.ID,
-         VARIETY,
-         COALTYPE,
-         CTYPE,
-         OREID,
-         MZJJ,
-         ENABLED=rldd.r_Dm_t_Orc.Dm_t_Ocl_ENABLED,
-         LRSJ,
-         STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
-         ORGNAME,
-         ORGID,
-         RZ,
-         HRD,
-         LF,
-         HFF,
-         HF,
-         QSF,
-         KMXS,
-         LF_TOP,
-         KMXS_TOP,
-         QSF_TOP,
-         HRD_TOP,
-         HFF_TOP,
-         HF_TOP,
-         RZ_TOP</t>
   </si>
   <si>
     <t xml:space="preserve"> ID,
@@ -2179,62 +1612,415 @@
    RZ_TOP </t>
   </si>
   <si>
-    <t xml:space="preserve"> rldd.RL_GYSGL_ORECOALINFO</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_GYSGL_ORECOALINFO</t>
   </si>
   <si>
-    <t xml:space="preserve">        Id,
-         Gysqc,
-         Sh,
-         Sjgysbm,
-         Entityid,
-         Splx,
-         CYM,
-         CYSH,
-         Frdb,
-         Gysbz,
-         Gysflname,
-         Dqid,
-         Dqname,
-         Fmisdq,
-         SJGYSID,
-         Sjgysname,
-         Sfsc=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
-         Mc,
-         Ndscnl,
-         Gysclsj,
-         ysfs,
-         Dwdz,
-         Gszcxx,
-         Gysjc,
-         Khhyzh,
-         Sfls=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
-         Khhezh,
-         Sfxn=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
-         Khhe,
-         Zczbj,
-         Khhy,
-         Status=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
-         Hzyx,
-         Bz,
-         Lxr,
-         Phone,
-         Email,
-         Yzbm,
-         Cz,
-         Lxdz,
-         Djbh,
-         Sqdcname,
-         Sqrname,
-         Sqdcid,
-         Sqsj,
-         Sqrid,
-         Dbgh,
-         ORGID,
-         sflh,
-         JYNL </t>
+    <t>rl_fuel_rldd.RL_GYSGL_GYSXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ID,
+   ZDXXWHID,
+   ZDXXWHNAME,
+   S_CREATOR_ORG,type</t>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_DCZDGXWHB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ID,
+   KDQC,
+   SSDQID,
+   SSDQNAME,
+   YSFSID,
+   SJKDID,
+   SJKDNAME,
+   IFLS,
+   LXR,
+   IFXN,
+   IFDK,
+   IFZD,
+   IFTP,
+   IFQY, 
+   KDBM,
+   BZ,
+   SQYY,
+   DZ,
+   JD,
+   WD,
+   MKDQNAME,
+   TBR,
+   STATUS,
+   ORGID,
+   KDJC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_GYSGL_KDGL</t>
+  </si>
+  <si>
+    <t>oracle_tab</t>
+  </si>
+  <si>
+    <t>dm_tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, ORGID, DYRBID, GYSID, GYSNAME, KDID, KDNAME, MZ, YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_YSFS, JHCGL, HTH, 
+CCHC, BZ, YSDWID, CM, FZID, FZ, FRL, HFF, LF, KJ, YF, QTFY, DCJ, HSBD, 
+YXMC, YXMQ, LMCS, FZSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, BCLD, HF, QS, ZF,  VARIETYID, VARIETY, 
+SERIALNUMBER, ENABLED, BD, REMARK, CMID, ONROADPLANID, ISLS, HTID, YSHTH </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, ORGID, DYRBID, GYSID, GYSNAME, KDID, KDNAME, MZ, YSFS, JHCGL, HTH, 
+CCHC, BZ, YSDWID, CM, FZID, FZ, FRL, HFF, LF, KJ, YF, QTFY, DCJ, HSBD, 
+YXMC, YXMQ, LMCS, FZSJ, BCLD, HF, QS, ZF,  VARIETYID, VARIETY, 
+SERIALNUMBER, ENABLED, BD, REMARK, CMID, ONROADPLANID, ISLS, HTID, YSHTH </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ID, ORGID, ORGNAME,  CREATE_USER, CREATE_TIME,  
+ STATUS, RQ, SL, PJRZ, PJLF, BMDJ, DCKJFS, DCKJFSVALUE, BRDYQKJB, 
+ PJHFF, SSBSJ, ESBSJ,  BMDJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+         FDL,
+        HML,
+       ORGID,
+       RQ,
+      INVENTORY,
+       USABLEDAYS,
+       ABNORMAL,
+       SML,
+       AVERAGECONSUME,
+       CXDHL,
+       SCDHL,
+       CX_JHL,
+      SC_JHL,
+      SC_SJDHL,
+       CX_SJDHL,
+      JHFDL,
+        SJKC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_DYGL_XQYC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl_fuel_rldd.RL_DYGL_ROLL_NEED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGLAYER, YF, FILEID, FJNAME, STATUS, DCSL, CCSBTIME, ZHSBTIME, PPD, JQPJJG, XTPPD, SCSJ, DATASOURCE, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_HTGL_JHDXQK_ZB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTINT_ELEMET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGLAYER, YF, FILEID, FJNAME,
+status=rldd.r_Dm_t_Orc.Dm_t_Ocl_Sbstatus_ext ,DCSL,CCSBTIME, ZHSBTIME, 
+PPD, JQPJJG,XTPPD, SCSJ,1 DATASOURCE, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_HTGL_JHDXQK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RL_FUEL_RLDD.RL_DYGL_JHDXQK_DETAIL </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGLAYER, DW, YF, FILEID, HTBH, GYS, YSFS, SJDHL, SJLMFRL, SJLMHFF, SJLMLF, SJLMKJ, SJLMYF, SJLMQTF, SJLMDCJ, SJLMHSBD, SJLMBHSBD, JSDBH, MZLX, MZ, MZSYS, REMARK, ISAGREE, DJFS, FZGS, FJ, DJ, FZ, DZ, FHDW, SHDW, VARIETY, HY, JHDXQKID, GYSID, FZID, DZID, FJID, DJID, FHDWID, SHDWID, VARIETYID, YSFSID, DWID, MZID, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       CHANGED_CONTRACT_ID,
+       CONTRACT_TYPE,
+       ORDER_GOODS_MODE,
+       CONTRACT_TAB,
+       FIRST_PARTY_ID,
+       SECOND_PARTY_ID, 
+       BILL_NO, 
+       VERSION_NO,
+       NAME,
+       SIGN_PLACE,
+       SIGN_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       START_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       END_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       TRANSPORT,   
+       AUDIT_STATE, 
+       ORGAN_ID,
+       DATA_STATE,
+       LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       LAST_UPDATED_BY,
+       CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       CREATED_BY,    
+       DATA_ID,
+       CONTRACT_CATEGORY,
+       BUY_MODE,
+       BUY_TYPE, 
+       WEIGHT_ACCORDING,
+       ASSAY_ACCORDING,
+       IS_LOSS,
+       LOSS, 
+       PRICE_TYPE,
+       BILLING_MODE,  
+       RECEIVING_TYPE, 
+       IS_BEAR,
+       COUNTERSIGNED_CONTENT,
+       PROFIT_EVALUATION,
+       BUSINESS_TYPE,
+       MANAGE_TYPE,
+       CONTRACT_MAIN_ID,
+       BALANCE_DEPTCODE,
+       BIDDING_NO,   
+       BIDDING_ID,
+       MATCH_DATE_TYPE,
+       ID,
+       STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, 
+       ORGLAYER=r_Dm_t_Orc.f_Get_Orgidtoorglayer,
+       SPLX,
+       SOURCE_ID, 
+       HTTK, 
+       WSYBZMBSM,
+       UNIFY_RESULTMSG,
+       PAYMENT_METHOD, 
+       STANDARD_NUMBER,
+       STANDARD_QUALITY,
+       CURRENCY_UNIT,
+       SUPPLY_CHAIN_UNIT,
+       ISLAW,
+       IN_ID,
+       ATTR1,
+       IF_ACCOUNT_BY_GOODS,
+       IF_DLRL_CONTRACT,
+       REMOVE_BPM_TIME,
+       REMOVE_ACCOUNT,
+       FIRST_AUDIT_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+       IF_DZCG,  
+         SQJS,
+       IS_PRICE,  
+       OPTYPE,  
+       GX_STATUS,
+       IS_EDIT </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONTRACT_ID, ORGAN_ID, JAN, FEB, MAR, APR, MAY, JUN, JUL, AUG, SEPT, OCT, NOV,
+ DEC, MEMO, DATA_STATE, LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+ CREATED_BY, LAST_UPDATE_LOGIN, CONTENT_ID, FROM_STATION, TO_STATION, 
+ GOODS_ID, PRODUCT_ID, COAL_KIND_ID, SUPPLIER_ID, MINE_ID, DATA_ID, 
+ SUPERVISE_TYPE, TRANSPORT_PROPERTY, BUY_MODE, ID, SOURCE_ID, IYEAR, 
+ PRESUM, SUPERVISE_SUM, TRANSPORT_SUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALUATION_ID, PLAN_ID, VALUATION_NO, FROM_STATION, TO_STATION, GOODS_ID, PRODUCT_ID,
+ COAL_KIND_ID, SUPPLIER_ID, MINE_ID, DATA_STATE, LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY,
+  CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, LAST_UPDATE_LOGIN, LM_SUPPLIER_ID, START_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, END_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+   DATA_ID, BALANCE_NO, ID, PURCHASING_AREA, CONTRACT_ID, IS_DECLARE, COUNTRY_ORIGIN, TRANSPORT </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TEMPLATES_ID, CONTRACT_ID, BASE_PRICE, BASE_UNIT, Q_CODE, Q_VALUE, M_CODE, M_VALUE, 
+S_CODE, S_VALUE, A_CODE, A_VALUE, V_CODE, V_VALUE, ST_VALUE, ORGAN_ID, DATA_STATE, 
+LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, LAST_UPDATE_LOGIN, 
+VALUATION_NO, VALUATION_MODLE, YS_MONEY, YS_UNIT, DATA_ID, IS_PASS_WEIGHTING, 
+TAX_RATE, ID, SOURCE_ID </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PARENT_ID, VALUATION_ID, LEFT_VALUE, LEFT_SYMBOL, LABORATORY_INDEX, RIGHT_SYMBOL, 
+RIGHT_VALUE, BASE_PIRCE, BASE_UNIT, FLOATING_START, FLOATING_POINT, FLOATING_PRICE, 
+FLOATING_PRICE_UNIT, KL_METHOD, KC_WEIGHT, KC_UNIT, ITEM_ID, YS_PRICE, ORGAN_ID, 
+DATA_STATE, LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, LAST_UPDATE_LOGIN, 
+CLAUSE_NO, KL_WEIGHT, YS_UNIT, CAL_MODE, CAR_TYPE, ID, DATA_ID </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, RL_CONTRACT_ID, YS_CONTRACT_ID, SHIPPER, IS_EXIST, ORGAN_ID, DATA_STATE, 
+IS_BINDING, IS_DEDUCT_LOSS, DEDUCT_METHOD, DATA_ID, LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, 
+CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, LAST_UPDATE_LOGIN </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, CONTRACT_ID, ORGAN_ID, SUPPLIER_ID, TRANSPORT, MINE_ID, FROM_STATION,
+ DISTANCE, TO_STATION, START_DATE, END_DATE, DEDUCT_METHOD, SOURCE_ID, DATA_ID, 
+ DATA_STATE, LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY,
+  LAST_UPDATE_LOGIN  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, MAIN_ID, COST_ID, PRICE, UNIT, DATA_STATE, CAR_TYPE, DATA_ID, 
+LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, LAST_UPDATE_LOGIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, WEIGHTING_ID, LEFT_VALUE, LEFT_SYMBOL, LABORATORY_INDEX, RIGHT_SYMBOL, 
+RIGHT_VALUE, DATA_STATE, DATA_ID, LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+CREATED_BY, LAST_UPDATE_LOGIN </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID, WEIGHTING_ID, DATA_STATE, START_DATE, END_DATE, MINE_ID, FROM_STATION, 
+GOODS_ID, PRODUCT_ID, COAL_KIND_ID, LM_SUPPLIER_ID, CUSTOMER_ID, DATA_ID, 
+LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, 
+LAST_UPDATE_LOGIN </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ, NZCG, JHCM, JHHC, JHZHL, HTSX, GYSID, GYSNAME, JHCGL, NBHCBM, YJDCRQ, MDG, SJHCBM, HCLAYER, DYDW, YJDGSJ, SJDGSJ, CBTBSJ, BW, KBSJ, KGSJ, WGSJ, LGSJ,
+ SJZHL, SJMZ, QNET, MT, AAR, VAR, STAR, STD, ST, WCQK, SJDCRQ, XQDW, XQDWID, SJZHL_DC, SJMZ_DC, QNET_DC, MT_DC, AAR_DC, VAR_DC, STAR_DC, STD_DC, ST_DC, CREATEUSER,  CREATEORGID, RQ, CID, LCRQ, JHCMID, 
+ HF, QS, BCLD, KJ, YF, DCJ, BMDJ, KDID, VARIETYID, KDNAME, VARIETY, HTH, YSDWID, YSDW, REMARK, YJLGSJ, ZF, YJDCSJ, YJLCSJ, YSHTH, RLHTH, CD, UPDATETIME, CGJHXMID, HRD, SCMCGQKJJG, MXDCXSHTJ, KBDRPCSCJ, 
+ DYSCJ, MYD, MYDMZ, SZGK, ZGXHSL, ZGLJRZ, ZGLJLF, ZGLJHRD, ZGDWH, HXDCQK, ISGKBHCZ, ISCBASDG, ISCBZHZC, DYYCYY, ZHG, DDZGSJ, DGCCJHTS, ZGKBSJ, ZGLGSJ, ZGYS, ZGYBCS, ZGSJZZL, ZGRZ, ZGLF, ZGHRD,  XGYS, XGSL, XGRZ, XGLF, XGHRD, XGBZ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.rl_rljy_xsmpcjhrbb_zb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGLAYER, DW, YF, FILEID, HTBH, GYS, YSFS, SJDHL, SJLMFRL, SJLMHFF, 
+SJLMLF, SJLMKJ, SJLMYF, SJLMQTF, SJLMDCJ, SJLMHSBD, SJLMBHSBD, JSDBH, MZLX, MZ, MZSYS, REMARK, 
+ISAGREE, DJFS, FZGS, FJ, DJ, FZ, DZ, FHDW, SHDW, VARIETY, HY,FKID JHDXQKID, GYSID, FZID, DZID, 
+FJID, DJID, FHDWID, SHDWID, VARIETYID, YSFSID, DWID, MZID, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, 
+UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ ID,
+         FOREIGNID,
+         JHMZ,
+         RZ,
+         LF,
+         HFF,
+          QT,
+          YJZCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         NZCG,
+         JHCM,
+         JHHC,
+         JHZHL, 
+         HTSX,
+         GYSID,
+         GYSNAME,
+         JHCGL,
+         NBHCBM,
+         YJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         MDG,
+         SJHCBM,
+         HCLAYER,
+         DYDW,
+        YJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+        SJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+        CBTBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         BW,
+         KBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         KGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         WGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         LGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         SJZHL,
+         SJMZ,
+         QNET,
+         MT,
+         AAR,
+         VAR,
+         STAR,
+         STD,
+         ST,
+         WCQK,
+         SJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         XQDW,
+         XQDWID,
+         SJZHL_DC,
+         SJMZ_DC,
+         QNET_DC,
+         MT_DC,
+         AAR_DC,
+         VAR_DC,
+         STAR_DC,
+         STD_DC,
+         ST_DC,
+         CREATEUSER, 
+         CREATEORGID,
+         RQ,
+         CID,
+         LCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         JHCMID,
+         HF,
+         QS,
+         BCLD,
+         KJ,
+         YF,
+         DCJ,
+         BMDJ,
+         KDID,
+         VARIETYID,
+         KDNAME,
+         VARIETY,
+         HTH,
+         YSDWID,
+         YSDW,
+         REMARK,
+         YJLGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         ZF,
+         YJDCSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         YJLCSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         YSHTH,
+         RLHTH,
+         CD,
+         UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         CGJHXMID,
+         HRD,
+         SCMCGQKJJG,
+         MXDCXSHTJ,
+         KBDRPCSCJ,
+         DYSCJ,
+         MYD,
+         MYDMZ,
+         SZGK,
+         ZGXHSL,
+         ZGLJRZ,
+         ZGLJLF,
+         ZGLJHRD,
+         ZGDWH,
+         HXDCQK,
+         ISGKBHCZ,
+         ISCBASDG,
+         ISCBZHZC,
+         DYYCYY,
+         ZHG,
+         DDZGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         DGCCJHTS,
+         ZGKBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         ZGLGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         ZGYS,
+         ZGYBCS,
+         ZGSJZZL,
+         ZGRZ,
+         ZGLF,
+         ZGHRD, 
+         XGYS,
+         XGSL,
+         RZ,
+         LF,
+         HRD XGHRD,
+         XGBZ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Id,
@@ -2287,68 +2073,434 @@
    ORGID,
    GYSZT,
    JYNL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rldd.RL_GYSGL_GYSXX</t>
-  </si>
-  <si>
-    <t>rl_fuel_rldd.RL_GYSGL_GYSXX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Id,
+         Gysqc,
+         Sh,
+         Sjgysbm,
+         Entityid,
+         Splx,
+         CYM,
+         CYSH,
+         Frdb,
+         Gysbz,
+         Gysflname,
+         Dqid,
+         Dqname,
+         Fmisdq,
+         SJGYSID,
+         Sjgysname,
+         Sfsc=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
+         Mc,
+         Ndscnl,
+         Gysclsj,
+         ysfs,
+         Dwdz,
+         Gszcxx,
+         Gysjc,
+         Khhyzh,
+         Sfls=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
+         Khhezh,
+         Sfxn=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
+         Khhe,
+         Zczbj,
+         Khhy,
+         Status=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
+         Hzyx,
+         Bz,
+         Lxr,
+         Phone,
+         Email,
+         Yzbm,
+         Cz,
+         Lxdz,
+         Djbh,
+         Sqdcname,
+         Sqrname,
+         Sqdcid,
+         Sqsj=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+         Sqrid,
+         Dbgh,
+         ORGID,
+         sflh,
+         JYNL </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> o.ID,
+         VARIETY,
+         COALTYPE,
+         CTYPE,
+         OREID,
+         MZJJ,
+         ENABLED=rldd.r_Dm_t_Orc.Dm_t_Ocl_ENABLED,
+         LRSJ,
+         STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
+         ORGNAME,
+         ORGID,
+         RZ,
+         HRD,
+         LF,
+         HFF,
+         HF,
+         QSF,
+         KMXS,
+         LF_TOP,
+         KMXS_TOP,
+         QSF_TOP,
+         HRD_TOP,
+         HFF_TOP,
+         HF_TOP,
+         RZ_TOP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> rldd.RL_GYSGL_ORECOALINFO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+         NAME,
+         BM,
+         PARENTID,
+         PARENTNAME,
+         DQNAME,
+         TYPE,
+         XZ,
+         JD,
+         WD,
+         SFQY,
+         SFLS,
+         MAXTRANSPORT,
+         AVGTRANSPORT,
+         LAYER,
+         DQID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_GYSGL_KDZD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ZDID, ZDNAME, KDNAME, KDID, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, TYPE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID, GYSID, kdid, GYSNAME, KDNAME </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID,
+         DQNAME,
+         BM,
+         LAYER,
+         TYPE,
+         PARENTID,
+         PARENTNAME,
+         YZBM,
+         SFQY,
+         SSDQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MKSX,
+         ZNMKSH,
+         ZNMKBM,
+         ZNMKJC,
+         ZNMKQC,
+         SFBM,
+         ORGID,
+         ORGNAME,
+         ORGLAYER,
+         ID,
+         SFBM,
+         ZDK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MKSX,
+   ZNMKSH,
+   ZNMKBM,
+   ZNMKJC,
+   ZNMKQC,
+   SFBM,
+   ORGID,
+   ORGNAME,
+   ORGLAYER,
+   ID,
+   SF,
+   IFZDK </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+         ORGID,
+         ORGNAME,
+         FR,
+         DH,
+         KHH,
+         YB,
+         DZ,
+         DLR,
+         JC,
+         ZH,
+         SH,
+         CZ,
+         PYJX,
+         ISJJT,
+         ISGS,
+         DQID,
+         CGFS,
+         ZJRL,
+         XXZJQK,
+         NHML,
+         JJKC,
+         GRMJ,
+         SJMZ_QNETAR,
+         SJMZ_STD,
+         FGRKC,
+         GRL,
+         GYGR,
+         SMOKE,
+         SO2,
+         NOX,
+         JD,
+         WD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, GYSID, GYSNAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl_fuel_rldd.RL_JH_XSMXQJH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_RLJY_XSMXQJH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                             ID,
+                            CREATEUSER,
+                            CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+                            ORGID,
+                            ORGLAYER,
+                            STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
+                            TBRID,
+                            TBRNAME,
+                            SHRID,
+                            SHRNAME,
+                            TBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+                            TBDWID,
+                            TBDWNAME,
+                            XQYEAR,
+                            XQMONTH,
+                            XQDWID,
+                            XQDWNAME,
+                            YDFDLJH,
+                            YDGRLJH,
+                            JHYML,
+                            QCKCL,
+                            QMYJKCL,
+                            BQJHZCGL,
+                            XSMJHCGL,
+                            XQTYPE,
+                            SUMJHZHL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_RLJY_XSMXQJH_ZB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, NZCG, JHCM, JHHC, JHZHL, BZ, HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, 
+GYSID,  JHCGL, NBHCBM, YJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, MDG, SJHCBM, HCLAYER, DYDW, YJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CBTBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+BW, KBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, KGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, WGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SJZHL, SJMZ, QNET, MT, AAR, VAR, STAR, STD, ST, WCQK, SJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+XQDW, XQDWID, SJZHL_DC, SJMZ_DC, QNET_DC, MT_DC, AAR_DC, VAR_DC, STAR_DC, STD_DC, ST_DC, 
+STATUS, CREATEUSER, CREATEORGID, LCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, JHCMID, YJLGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, RLHTH, CYGYS, UPDATETIME, 
+CGJHXMID, HRD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_ZHGL_SCXX_MTSCHQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, ORGID, ORGNAME, ORGLAYER, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+RQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,   CM,  CX, CD, CC, CK, ORDERNO </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_JH_NDCG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, COMP_ID, CGNF, MN_XQL, MN_FRL, MN_CKJ, MN_HSRCBD, TBRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,  ORGLAYER=r_Dm_t_Orc.f_Get_Orgidtoorglayer, 
+CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SFZX, ZCXYML, YJDXL, BGBB, BGYY, 
+BGSQ, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_JH_NDCGMX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, NDCG_ID, GYS_ID, DHKJ, QN_YCL, QN_FRL, QN_CKJ, QN_HSRCBD, MN_FRL, MN_CKJ, MN_HSRCBD,
+ YSFS, GYS_NAME, CGLX, CGQY, MYDQ, CGFS, DXL,  KDID, KDNAME, VARIETYID, VARIETY, 
+ NDHTXX_HTH, DJJZ,  TZZT, JHDHL,CREATE_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, NDCG_ID, GYS_ID, HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, QN_YCL, QN_FRL, QN_CKJ, QN_HSRCBD, MN_FRL,
+ MN_CKJ, MN_HSRCBD, YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Ysfs, GYS_NAME, CGLX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cglx, CGQY, MYDQ, CGFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cgfs, DXL, RNO, KDID, 
+ KDNAME, VARIETYID, VARIETY, 
+ HTH, DJJZ,TZZT, JHDHL,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RLDD.RL_JH_NDXQ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, COMP_ID, XQNF, FD_BNWC, FD_BNYJ, FD_MNYJ, DM_BNHY, DM_BNYJ, DM_MNYJ, GR_BNHY, 
+GR_BNYJ, GR_MNYJ, REZHI, HFF, LIUFEN, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, ORGID, 
+ORGLAYER, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, XQSL, SFZX, BGBB, BGYY, BGSQ, BNMYJKC, MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ 
+ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_JH_NDXQMX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, NDXQ_ID, FENQI_ID, FD_BNWC, FD_BNYJ, FD_MNYJ, DM_BNHY, DM_BNYJ, GR_BNHY, GR_BNYJ,
+GR_MNYJ, DM_MNYJ, REZHI, HFF, LIUFEN, HUIFEN, SHUIFEN, HRD, KMXS, XQSL, RNO, BNMYJKC, 
+MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ,CREATOR_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, NDXQ_ID, FENQI_ID, FD_BNWC, FD_BNYJ, FD_MNYJ, DM_BNHY, DM_BNYJ, GR_BNHY, GR_BNYJ,
+GR_MNYJ, DM_MNYJ, REZHI, HFF, LIUFEN, HUIFEN, SHUIFEN, HRD, KMXS, XQSL, RNO, BNMYJKC, 
+MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RL_FUEL_RLDD.RL_JH_YDXQ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLDD.RL_JH_YDXQ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, COMP_ID, XQYF, FDL, FDBMH, FDBML, GRL, GRBMH, GRBML, CCSH, QTY, REZHI, HFF, 
+LIUFEN, YCKC, YMKC, XQSL, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, ORGID, ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,
+ STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, JTPFYMKC, SFBG, BGBB, SFZX, BGYY, JHBH, BGSQ, GDBMH, CLBDC, YDZHSWDJ, GDBML,
+  GDL, SMOKE, SO2, NOX </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLDD.RL_JH_YDXQMX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, YDXQ_ID, FENQI_ID, FDL, FDBMH, FDBML, GRL, GRBMH, GRBML, CCSH, QTY, REZHI, HFF, 
+LIUFEN, YCKC, YMKC, XQSL, HTSX, CGQY, RNO, GDBMH, CLBDC, YDZHSWDJ, GDL, GDBML, MZ,CREATOR_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, YDXQ_ID, FENQI_ID, FDL, FDBMH, FDBML, GRL, GRBMH, GRBML, CCSH, QTY, REZHI, HFF, 
+LIUFEN, YCKC, YMKC, XQSL, HTSX, CGQY, RNO, GDBMH, CLBDC, YDZHSWDJ, GDL, GDBML, MZ,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ID, ORGID,ORGID#ORGLAYER, CGYF, YJHSL, YJHRZ, YJHHFF, YJHLF, CZR, CZSJ, STATUS, BZ, CGNF,  
+ CREATOR_ID,  CREATOR_DATE,   YJHSL, YDXSMCGZL, NDJJ, SCJJ, RCHSBD, RCBHSBD,  
+ QYWZB, SCMZB, JJZB, DDGYSZB, SFBG, BGBB, SFZX, BGYY, JHBH, BGSQ, JZCGZB, JZCGSL, 
+ YDFDBJXY, DCFJID, FGSFJID, DCCGSM, FGSCGSM </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_JH_YDCG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ID, COMP_ID,ORGLAYER=r_Dm_t_Orc.f_Get_Orgidtoorglayer,  CGYF, YJHSL, YJHRZ, YJHHFF, YJHLF, CZR, CZSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, BZ, CGNF,  
+ CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,  YJHYL, YDXSMCGZL, NDJJ, SCJJ, RCHSBD, RCBHSBD,  
+ QYWZB, SCMZB, JJZB, DDGYSZB, SFBG, BGBB, SFZX, BGYY, JHBH, BGSQ, JZCGZB, JZCGSL, 
+ YDFDBJXY, DCFJID, FGSFJID, DCCGSM, FGSCGSM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, YDCG_ID, GYS_ID, HTSX, CGLX, CGQY,   YSFS, YSSX, YJHL, MZ, FRL, HFF, LF,
+KJ, YF, QTF, DCJ, HSBD, BHSBD, BZ, CZSJ, FENQI_ID, QCKC, QMKC,   DZID, FZID, 
+SFFGWBA, DJFS, CGFS, MYDQ, MJSL, YFSL, KDID,   RNO , VARIETYID, 
+PLANTYPE, FDBJXY, COALTYPE, COALTYPEDC, REMARK, COALTYPEVIEW, HTID, FUELMXID, CREATOR_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RLDD.RL_JH_YDCGMX </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, YDCG_ID, GYS_ID, HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, CGLX, CGQY,   YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Ysfs, YSSX, YJHL, MZ, FRL, HFF, LF,
+KJ, YF, QTF, DCJ, HSBD, BHSBD, BZ, CZSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, FENQI_ID, QCKC, QMKC,   DZID, FZID, 
+SFFGWBA, DJFS, CGFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cgfs, MYDQ, MJSL, YFSL, KDID,   RNO , VARIETYID, 
+PLANTYPE, FDBJXY, COALTYPE, COALTYPEDC, REMARK, COALTYPEVIEW, HTID, FUELMXID,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, ORGID, JHYF, JHKC, SJKC, YHKC, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+ ORGLAYER, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, TZKC, ZJYY, KYTS, LJHY, SYHKC, SFZX, BGBB, BGYY, BGSQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, ORGID, JHYF, JHKC, SJKC, YHKC, CREATOR_ID, CREATOR_DATE, MODIFY_ID, MODIFY_DATE,
+ ORGLAYER, STATUS, TZKC, ZJYY, KYTS, LJHY, SYHKC, SFZX, BGBB, BGYY, BGSQ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_KCGL_KCJH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID,ORG_ID , ORG_NAME ,ORG_LAYER ,CREATE_USER ,CREATE_TIME ,UPDATE_USER ,  
+RQ, CM, CX, CD,  CC, CK,ORDERNO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
   ID,zdid,ZDNAME,kdid ,type=rldd.r_Dm_t_Orc.Dm_t_Ocl_PowerDz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ID,
-   ZDXXWHID,
-   ZDXXWHNAME,
-   S_CREATOR_ORG,type</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_DCZDGXWHB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ID,
-   KDQC,
-   SSDQID,
-   SSDQNAME,
-   YSFSID,
-   SJKDID,
-   SJKDNAME,
-   IFLS,
-   LXR,
-   IFXN,
-   IFDK,
-   IFZD,
-   IFTP,
-   IFQY, 
-   KDBM,
-   BZ,
-   SQYY,
-   DZ,
-   JD,
-   WD,
-   MKDQNAME,
-   TBR,
-   STATUS,
-   ORGID,
-   KDJC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_GYSGL_KDGL</t>
-  </si>
-  <si>
-    <t>oracle_tab</t>
-  </si>
-  <si>
-    <t>dm_tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, ORGID, DYRBID, GYSID, GYSNAME, KDID, KDNAME, MZ, YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_YSFS, JHCGL, HTH, 
-CCHC, BZ, YSDWID, CM, FZID, FZ, FRL, HFF, LF, KJ, YF, QTFY, DCJ, HSBD, 
-YXMC, YXMQ, LMCS, FZSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, BCLD, HF, QS, ZF,  VARIETYID, VARIETY, 
-SERIALNUMBER, ENABLED, BD, REMARK, CMID, ONROADPLANID, ISLS, HTID, YSHTH </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ID, ORGID, ORGNAME,  CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,  
+ STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_SBStatus, RQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_DateStr, SL, PJRZ, PJLF, BMDJ, DCKJFS, DCKJFSVALUE, BRDYQKJB, 
+ PJHFF, SSBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, ESBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,  BMDJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALUATION_ID, PLAN_ID, VALUATION_NO, FROM_STATION, TO_STATION, GOODS_ID, PRODUCT_ID,
+ COAL_KIND_ID, SUPPLIER_ID, MINE_ID, DATA_STATE, LAST_UPDATE_DATE, LAST_UPDATED_BY,
+  CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN, LM_SUPPLIER_ID, START_DATE, END_DATE,
+   DATA_ID, BALANCE_NO, ID, PURCHASING_AREA, CONTRACT_ID, IS_DECLARE, COUNTRY_ORIGIN, TRANSPORT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id, 
+Ccmx_Id#Fa_Id,
+Ccmx_Id#Ccmx_Id, 
+Cyfa_Bm, 
+Myjm_Code</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2755,878 +2907,920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96544DDA-B076-43F7-8883-0D4FA6E24779}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="5" t="s">
+    <row r="42" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="5" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="324" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="5" t="s">
+    </row>
+    <row r="44" spans="1:4" ht="345.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="5" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="5" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="5" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="351" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="5" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="374.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="364.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="5" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="388.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="5" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D50" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="351" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="5" t="s">
+    </row>
+    <row r="53" spans="1:4" ht="374.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="391.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="5" t="s">
+    </row>
+    <row r="54" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D54" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="216" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D55" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="337.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
+      <c r="C56" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="4" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="4" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="244.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="4" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="D59" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
+      <c r="D60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="4" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="D61" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="108" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
+      <c r="D62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="4" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="216" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/mapper.xlsx
+++ b/config/mapper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dtxy\设计\数据迁移\dm导入oracle\v1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\dataSync\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775405B-485C-45B1-8414-8C78BA856272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE12E4F-BC41-4530-B001-48F1CE2ADBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="映射表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="265">
   <si>
     <t>dm_tab</t>
   </si>
@@ -40,34 +40,6 @@
     <t>rldd.RL_GYSGL_KDGL</t>
   </si>
   <si>
-    <t>ID,
-   KDQC,
-   SSDQID,
-   SSDQNAME,
-   YSFSID,
-   SJKDID,
-   SJKDNAME,
-   IFLS,
-   LXR,
-   IFXN,
-   IFDK,
-   IFZD,
-   IFTP,
-   IFQY, 
-   KDBM,
-   BZ,
-   SQYY,
-   DZ,
-   JD,
-   WD,
-   MKDQNAME,
-   S_CREATOR_NAME,
-   STATUS,
-   ORGID,
-   ORGID#ORGLAYER,
-   KDJC</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_DCZDGXWHB</t>
   </si>
   <si>
@@ -77,64 +49,6 @@
     <t>RL_FUEL_RLDD.RL_GYSGL_GYSXX</t>
   </si>
   <si>
-    <t>rldd.RL_GYSGL_GYSXX</t>
-  </si>
-  <si>
-    <t>Id,
-   Gysqc,
-   Sh,
-   Sjgysbm,
-   Entityid,
-   Splx,
-   CYM,
-   CYSH,
-   Frdb,
-   Gysbz,
-   Gysflname,
-   Dqid,
-   Dqname,
-   Fmisdq,
-   SJGYSID,
-   Sjgysname,
-   Sfsc,
-   Mc,
-   Ndscnl,
-   Gysclsj,
-   YSFSID,
-   Dwdz,
-   Gszcxx,
-   Gysjc,
-   Khhyzh,
-   Sfls,
-   Khhezh,
-   Sfxn,
-   Khhe,
-   Zczbj,
-   Khhy,
-   Status,
-   Hzyx,
-   Bz,
-   Lxr,
-   Phone,
-   Email,
-   Yzbm,
-   Cz,
-   Lxdz,
-   Djbh,
-   Sqdcname,
-   Sqrname,
-   Sqdcid,
-   Sqsj,
-   Sqrid,
-   Dbgh,
-   ORGID,
-   GYSZT,
-   JYNL</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_GYSGL_ORECOALINFO</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_ZHGL_STATION</t>
   </si>
   <si>
@@ -144,9 +58,6 @@
     <t>RL_FUEL_RLDD.RL_GYSGL_KDZD</t>
   </si>
   <si>
-    <t>ID, ZDID, ZDNAME, KDNAME, KDID, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, TYPE</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_GYSGL_GYSKD</t>
   </si>
   <si>
@@ -162,12 +73,6 @@
     <t>RL_FUEL_RLDD.RL_JCXX_ZNBM</t>
   </si>
   <si>
-    <t>RL_FUEL_RLDD.RL_ZHGL_RLHB_DCJCXXGL</t>
-  </si>
-  <si>
-    <t>rldd.RL_ZHGL_RLHB_DCJCXXGL</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_GYSGL_POWERGYS</t>
   </si>
   <si>
@@ -177,12 +82,6 @@
     <t>ID, ORGID, GYSID, GYSNAME</t>
   </si>
   <si>
-    <t>RLDD.RL_RLJY_XSMXQJH</t>
-  </si>
-  <si>
-    <t>RLDD.RL_RLJY_XSMXQJH_ZB</t>
-  </si>
-  <si>
     <t>rldd.RL_ZHGL_SCXX_MTSCHQ</t>
   </si>
   <si>
@@ -190,11 +89,6 @@
   </si>
   <si>
     <t>rldd.RL_JH_NDCG</t>
-  </si>
-  <si>
-    <t>ID, COMP_ID, CGNF, MNXQL, MN_FRL, MN_CKJ, MN_HSRCBD, CREATE_TIME, STATUS,COMP_ID#ORGLAYER,
-CREATE_USER, CREATE_TIME,SFZX, ZCXYML, YJDXL, BGBB, BGYY,
-BGSQ,UPDATE_TIME</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_JH_NDCGMX</t>
@@ -334,9 +228,6 @@
 TAX_RATE, ID, SOURCE_ID</t>
   </si>
   <si>
-    <t>RL_FUEL_RLDD.RL_CONTRACT_CLAUSE</t>
-  </si>
-  <si>
     <t>RLDD.FM_CONTRACT_CLAUSE</t>
   </si>
   <si>
@@ -427,17 +318,8 @@
     <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTINT_ELEMET</t>
   </si>
   <si>
-    <t>rldd.fm_weightint_elemet</t>
-  </si>
-  <si>
     <t>ID, WEIGHTING_ID, DATA_STATE, START_DATE, END_DATE, MINE_ID, FROM_STATION, GOODS_ID, PRODUCT_ID, COAL_KIND_ID, 
 LM_SUPPLIER_ID, CUSTOMER_ID, DATA_ID, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN</t>
-  </si>
-  <si>
-    <t>ID, WEIGHTING_ID, DATA_STATE, START_DATE, END_DATE, MINE_ID, FROM_STATION, 
-GOODS_ID, PRODUCT_ID, COAL_KIND_ID, LM_SUPPLIER_ID, CUSTOMER_ID, DATA_ID, 
-LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, 
-LAST_UPDATE_LOGIN</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK</t>
@@ -502,18 +384,6 @@
   </si>
   <si>
     <t>RLDD.RL_MARKETINFO_CXCXX</t>
-  </si>
-  <si>
-    <t>ID, CJDW, CJR, CJRQ, KDQCID, KDQCNAME, ORGID, DQSCQK, BQCL, BQXL, BQKCL, GYNL, BZ, 
-FJID, GYSGLNAME, KSSJ, BQSJKD_TITLE, MZID_TITLE, PMID_TITLE, POS_X, POS_Y, RZ, HF, QS, SF, HFF, 
-GDT, LF, ZHXS, KMX, HZBXWD, HZRHWD, HZRGHWD, NA2O, K2O, CAO, FEO, SIO2, AL2O3, 
-TIO2, FE2O3, ZJZS, ZDCL, ZDCLMT</t>
-  </si>
-  <si>
-    <t>ID, CJDW, CJR, CJRQ, KDID, KDNAME, ORGID, DQSCQK, BQCL, BQXL, BQKCL, GYNL, BZ, 
-FJID, GYS, KSSJ, TIMESPAN, COALTYPE, VARIETYID, POS_X, POS_Y, RZ, HF, QS, SF, HFF, 
-GDT, LF, ZHXS, KMX, HZBXWD, HZRHWD, HZRGHWD, NA2O, K2O, CAO, FEO, SIO2, AL2O3, 
-TIO2, FE2O3, ZJZS, ZDCL, ZDCLMT</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.Rl_Zhgl_Rlhb_Dcjcxxgl_Zb</t>
@@ -1773,28 +1643,6 @@
 CCHC, BZ, YSDWID, CM, FZID, FZ, FRL, HFF, LF, KJ, YF, QTFY, DCJ, HSBD, 
 YXMC, YXMQ, LMCS, FZSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, BCLD, HF, QS, ZF,VARIETYID,VARIETY, 
 SERIALNUMBER, ENABLED, BD, REMARK, CMID, ONROADPLANID, ISLS, HTID, YSHTH</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID,
-COMP_ID,
-CGNF,
-MN_XQL,
-MN_FRL,
-MN_CKJ,
-MN_HSRCBD,
-TBRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
-STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
-ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,
-CREATEUSER,
-CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
-SFZX,
-ZCXYML,
-YJDXL,
-BGBB,
-BGYY,
-BGSQ,
-UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2044,154 +1892,12 @@
        IS_EDIT </t>
   </si>
   <si>
-    <t xml:space="preserve">       CHANGED_CONTRACT_ID,
-       CONTRACT_TYPE,
-       ORDER_GOODS_MODE,
-       CONTRACT_TAB,
-       FIRST_PARTY_ID,
-       SECOND_PARTY_ID, 
-       BILL_NO, 
-       VERSION_NO,
-       NAME,
-       SIGN_PLACE,
-       SIGN_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
-       START_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
-       END_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
-       TRANSPORT,   
-       AUDIT_STATE, 
-       ORGAN_ID,
-       DATA_STATE,
-       LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
-       LAST_UPDATED_BY,
-       CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
-       CREATED_BY,    
-       DATA_ID,
-       CONTRACT_CATEGORY,
-       BUY_MODE,
-       BUY_TYPE, 
-       WEIGHT_ACCORDING,
-       ASSAY_ACCORDING,
-       IS_LOSS,
-       LOSS, 
-       PRICE_TYPE,
-       BILLING_MODE,  
-       RECEIVING_TYPE, 
-       IS_BEAR,
-       COUNTERSIGNED_CONTENT,
-       PROFIT_EVALUATION,
-       BUSINESS_TYPE,
-       MANAGE_TYPE,
-       CONTRACT_MAIN_ID,
-       BALANCE_DEPTCODE,
-       BIDDING_NO,   
-       BIDDING_ID,
-       MATCH_DATE_TYPE,
-       ID,
-       STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, 
-       ORGLAYER=r_Dm_t_Orc.f_Get_Orgidtoorglayer,
-       SPLX,
-       SOURCE_ID, 
-       HTTK, 
-       WSYBZMBSM,
-       UNIFY_RESULTMSG,
-       PAYMENT_METHOD, 
-       STANDARD_NUMBER,
-       STANDARD_QUALITY,
-       CURRENCY_UNIT,
-       SUPPLY_CHAIN_UNIT,
-       ISLAW,
-       IN_ID,
-       ATTR1,
-       IF_ACCOUNT_BY_GOODS,
-       IF_DLRL_CONTRACT,
-       REMOVE_BPM_TIME,
-       REMOVE_ACCOUNT,
-       FIRST_AUDIT_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
-       IF_DZCG,  
-         SQJS,
-       IS_PRICE,  
-       OPTYPE,  
-       GX_STATUS,
-       IS_EDIT </t>
-  </si>
-  <si>
-    <t>rl_fuel_rldd.RL_JH_XSMXQJH</t>
-  </si>
-  <si>
-    <t>ID,
-                            CREATOR_ID,
-                            CREATOR_DATE,
-                           XQDWID,
-                           XQDWID#ORGLAYER,
-                            STATUS,
-                            TBRID,
-                            TBRNAME,
-                            SHRID,
-                            SHRNAME,
-                            TBSJ,
-                            TBDWID,
-                            TBDWNAME,
-                            XQYEAR,
-                            XQMONTH,
-                            XQDWID,
-                            XQDWNAME,
-                            YDFDLJH,
-                            YDGRLJH,
-                            JHYML,
-                            QCKCL,
-                            QMYJKCL,
-                            SUMJHZHL#BQJHZCGL,
-                            XSMJHCGL,
-                            XQTYPE,
-                            SUMJHZHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                             ID,
-                            CREATEUSER,
-                            CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
-                            ORGID,
-                            ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,
-                            STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
-                            TBRID,
-                            TBRNAME,
-                            SHRID,
-                            SHRNAME,
-                            TBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
-                            TBDWID,
-                            TBDWNAME,
-                            XQYEAR,
-                            XQMONTH,
-                            XQDWID,
-                            XQDWNAME,
-                            YDFDLJH,
-                            YDGRLJH,
-                            JHYML,
-                            QCKCL,
-                            QMYJKCL,
-                            BQJHZCGL,
-                            XSMJHCGL,
-                            XQTYPE,
-                            SUMJHZHL</t>
-  </si>
-  <si>
-    <t>rl_fuel_rldd.RL_JH_XSMXQJH_ZB</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ, NZCG, JHCM, JHHC, JHZHL, BZ, DHKJ, 
 GYSID,   NBHCBM, YJDCRQ, MDG, SJHCBM, HCLAYER, DYDW, YJDGSJ, SJDGSJ, CBTBSJ, 
 BW, KBSJ, KGSJ, WGSJ, LGSJ, SJZHL, SJMZ, QNET, MT, AAR, VAR, STAR, STD, ST, WCQK, SJDCRQ, 
 XQDW, XQDWID, SJZHL_DC, SJMZ_DC, QNET_DC, MT_DC, AAR_DC, VAR_DC, STAR_DC, STD_DC, ST_DC, 
 STATUS, CREATEUSER, CREATEORGID, LCRQ, JHCMID, YJLGSJ, RLHTH, CYGYS, UPDATETIME, 
 YDCGMXID, HRD </t>
-  </si>
-  <si>
-    <t>ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, NZCG, JHCM, JHHC, JHZHL, BZ, HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, 
-GYSID,   NBHCBM, YJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, MDG, SJHCBM, HCLAYER, DYDW, YJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CBTBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
-BW, KBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, KGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, WGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SJZHL, SJMZ, QNET, MT, AAR, VAR, STAR, STD, ST, WCQK, SJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
-XQDW, XQDWID, SJZHL_DC, SJMZ_DC, QNET_DC, MT_DC, AAR_DC, VAR_DC, STAR_DC, STD_DC, ST_DC, 
-STATUS, CREATEUSER, CREATEORGID, LCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, JHCMID, YJLGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, RLHTH, CYGYS, UPDATETIME, 
-CGJHXMID, HRD</t>
   </si>
   <si>
     <t>ID,
@@ -2382,13 +2088,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ID, GATHERE, CJRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_DateStr, SUPPLIER, 
-OREID, ORENAME=rldd.r_Dm_t_Orc.Dm_t_Ocl_KdName, OFFERAREA, COLLECTIONAREA, PLANTYPE, VARIETYID,
- TRANSPORTATION, PRICETYPE, PRICESTARTTIME, PRICEENDTIME, PRICE, REMARK,  TREND, ORGID, 
- ORGLAYER==rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer, ISLOCK, SHIPMENTPORTID, SOURCECODE, QUANTITY</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>ID, GATHERE, CJRQ, SUPPLIER, KDID, KDID#ORENAME, OFFERAREA, COLLECTIONAREA, PLANTYPE, VARIETYID,
 TRANSPORTATIONID, PRICETYPE, PRICESTARTTIME, PRICEENDTIME, PRICE, REMARK,  TREND, ORGID, 
 ORGID#ORGLAYER, ISLOCK, SHIPMENTPORTID, SOURCECODE, QUANTITY</t>
@@ -2397,62 +2096,6 @@
   <si>
     <t>RL_FUEL_RLDD.RL_JH_COALPRICEINFO</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> rldd.RL_GYSGL_ORECOALINFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID,
-   VARIETY,
-   COALTYPEID,
-   CTYPEID,
-   MKKDBMID,
-   MZJJ,   ENABLED,
-   LRSJ,
-   STATUS,
-   ORGNAME,
-   ORGID,
-   RZ,
-   HRD,
-   LF,
-   HFF,
-   HF,
-   QSF,
-   KMXS,
-   LF_TOP,
-   KMXS_TOP,
-   QSF_TOP,
-   HRD_TOP,
-   HFF_TO,
-   HF_TOP,
-   RZ_TOP </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> o.ID,
-         VARIETY,
-         COALTYPE,
-         CTYPE,
-         OREID,
-         MZJJ,
-         ENABLED=rldd.r_Dm_t_Orc.Dm_t_Ocl_ENABLED,
-         LRSJ,
-         STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
-         ORGNAME,
-         ORGID,
-         RZ,
-         HRD,
-         LF,
-         HFF,
-         HF,
-         QSF,
-         KMXS,
-         LF_TOP,
-         KMXS_TOP,
-         QSF_TOP,
-         HRD_TOP,
-         HFF_TOP,
-         HF_TOP,
-         RZ_TOP</t>
   </si>
   <si>
     <t xml:space="preserve"> ID,
@@ -2527,102 +2170,47 @@
     <t xml:space="preserve"> rldd.RL_JCXX_ZNBM</t>
   </si>
   <si>
-    <t xml:space="preserve">MKSX,
-   ZNMKSH,
-   ZNMKBM,
-   ZNMKJC,
-   ZNMKQC,
-   SFBM,
-   ORGID,
-   ORGNAME,
-   ORGLAYER,
-   ID,
-   SF,
-   IFZDK </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MKSX,
-         ZNMKSH,
-         ZNMKBM,
-         ZNMKJC,
-         ZNMKQC,
-         SFBM,
+    <t xml:space="preserve">ID,
+         KDQC,
+         SSDQID,
+         SSDQNAME,
+         YSFS,
+         SJKDID,
+         SJKDNAME,
+         IFLS,
+         sqrid,
+         IFXN=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
+         IFDK=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
+         IFZD=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
+         IFTP=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
+   IFQY=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE, 
+   KDBM,
+         BZ,
+         SQYY,
+         DZ,
+         JD,
+         WD,
+         MKDQQC,
+         CREATEUSER,
+         STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
          ORGID,
-         ORGNAME,
-         ORGLAYER,
-         ID,
-         SFBM,
-         ZDK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID,
-   ORGID,
-   ORGNAME,
-   FR,
-   DH,
-   KHH,
-   YB,
-   DZ,
-   DLR,
-   JC,
-   ZH,
-   SH,
-   CZ,
-   PYJX,
-   ISJJT,
-   ISGSID,
-   DQID,
-   CGFSCODE,
-   ZJRL,
-   XXZJQK,
-   NHML,
-   JJKC,
-   GRMJ,
-   SJMZ_KCAL,
-   SJMZ_TOTALSULFUR,
-   FGRKC,
-   GRL,
-   GYGR,
-   SMOKE,
-   SO2,
-   NOX,
-   JD,
-   WD </t>
-  </si>
-  <si>
-    <t>ID,
-         ORGID,
-         ORGNAME,
-         FR,
-         DH,
-         KHH,
-         YB,
-         DZ,
-         DLR,
-         JC,
-         ZH,
-         SH,
-         CZ,
-         PYJX,
-         ISJJT,
-         ISGS,
-         DQID,
-         CGFS,
-         ZJRL,
-         XXZJQK,
-         NHML,
-         JJKC,
-         GRMJ,
-         SJMZ_QNETAR,
-         SJMZ_STD,
-         FGRKC,
-         GRL,
-         GYGR,
-         SMOKE,
-         SO2,
-         NOX,
-         JD,
-         WD</t>
+         ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,
+         KDJC </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_GYSGL_GYSXX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> rldd.fm_weightint_elemet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID, WEIGHTING_ID, DATA_STATE, START_DATE, END_DATE, MINE_ID, FROM_STATION, 
+GOODS_ID, PRODUCT_ID, COAL_KIND_ID, LM_SUPPLIER_ID, CUSTOMER_ID, DATA_ID, 
+LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, 
+LAST_UPDATE_LOGIN </t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        Id,
@@ -2674,37 +2262,483 @@
          Dbgh,
          ORGID,
          sflh,
-         JYNL </t>
+         JYNL ,
+         jjptid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+   KDQC,
+   SSDQID,
+   SSDQNAME,
+   YSFSID,
+   SJKDID,
+   SJKDNAME,
+   IFLS,
+   LXR,
+   IFXN,
+   IFDK,
+   IFZD,
+   IFTP,
+   IFQY, 
+   KDBM,
+   BZ,
+   SQYY,
+   DZ,
+   JD,
+   WD,
+   MKDQNAME,
+   S_CREATOR_NAME,
+   STATUS,
+   ORGID,
+   ORGID#ORGLAYER,
+   KDJC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID,
+   VARIETY,
+   COALTYPEID,
+   CTYPEID,
+   MKKDBMID,
+   MZJJ,   ENABLED,
+   LRSJ,
+   STATUS,
+   ORGNAME,
+   ORGID,
+   RZ,
+   HRD,
+   LF,
+   HFF,
+   HF,
+   QSF,
+   KMXS,
+   LF_TOP,
+   KMXS_TOP,
+   QSF_TOP,
+   HRD_TOP,
+   HFF_TO,
+   HF_TOP,
+   RZ_TOP </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> rldd.RL_GYSGL_ORECOALINFO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_GYSGL_ORECOALINFO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+         VARIETY,
+         COALTYPE,
+         CTYPE,
+         OREID,
+         MZJJ,
+         ENABLED=rldd.r_Dm_t_Orc.Dm_t_Ocl_ENABLED,
+         LRSJ,
+         STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
+         ORGNAME,
+         ORGID,
+         RZ,
+         HRD,
+         LF,
+         HFF,
+         HF,
+         QSF,
+         KMXS,
+         LF_TOP,
+         KMXS_TOP,
+         QSF_TOP,
+         HRD_TOP,
+         HFF_TOP,
+         HF_TOP,
+         RZ_TOP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MKSX,
+   ZNMKSH,
+   ZNMKBM,
+   ZNMKJC,
+   ZNMKQC, 
+   ORGID,
+   ORGNAME,
+   ORGLAYER,
+   ID,
+   SF,
+   IFZDK </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MKSX,
+         ZNMKSH,
+         ZNMKBM,
+         ZNMKJC,
+         ZNMKQC, 
+         ORGID,
+         ORGNAME,
+         ORGLAYER,
+         ID,
+         SFBM,
+         ZDK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_ZHGL_RLHB_DCJCXXGL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_ZHGL_RLHB_DCJCXXGL</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ID,
-         KDQC,
-         SSDQID,
-         SSDQNAME,
-         YSFS,
-         SJKDID,
-         SJKDNAME,
-         IFLS,
-         sqrid,
-         IFXN=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
-         IFDK=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
-         IFZD=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
-         IFTP=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE,
-   IFQY=rldd.r_Dm_t_Orc.Dm_t_Ocl_SFVALUE, 
-   KDBM,
-         BZ,
-         SQYY,
+   ORGID,
+   ORGNAME,
+   ORGID#ORGLAYER,
+   ORGID#PARENTID,
+   FR,
+   DH,
+   KHH,
+   YB,
+   DZ,
+   DLR,
+   JC,
+   ZH,
+   SH,
+   CZ,
+   PYJX,
+   ISJJT,
+   ISGSID,
+   DQID,
+   CGFSCODE,
+   ZJRL,
+   XXZJQK,
+   NHML,
+   JJKC,
+   GRMJ,
+   SJMZ_KCAL,
+   SJMZ_TOTALSULFUR,
+   FGRKC,
+   GRL,
+   GYGR,
+   SMOKE,
+   SO2,
+   NOX,
+   JD,
+   WD </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ZDID, ZDNAME, KDNAME, KDID, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, TYPE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+         ORGID,
+         ORGNAME,
+         ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,
+         PARENTID=rldd.r_Dm_t_Orc.Dm_t_Ocl_OrgParentId,
+         FR,
+         DH,
+         KHH,
+         YB,
          DZ,
+         DLR,
+         JC,
+         ZH,
+         SH,
+         CZ,
+         PYJX,
+         ISJJT,
+         ISGS,
+         DQID,
+         CGFS,
+         ZJRL,
+         XXZJQK,
+         NHML,
+         JJKC,
+         GRMJ,
+         SJMZ_QNETAR,
+         SJMZ_STD,
+         FGRKC,
+         GRL,
+         GYGR,
+         SMOKE,
+         SO2,
+         NOX,
          JD,
-         WD,
-         MKDQQC,
-         CREATEUSER,
-         STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
-         ORGID,
-         ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,
-         KDJC </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+         WD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl_fuel_rldd.RL_JH_XSMXQJH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_RLJY_XSMXQJH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_RLJY_XSMXQJH_ZB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl_fuel_rldd.RL_JH_XSMXQJH_ZB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+                            CREATEUSER,
+                            CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+                            ORGID,
+                            ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,
+                            STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
+                            TBRID,
+                            TBRNAME,
+                            SHRID,
+                            SHRNAME,
+                            TBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+                            TBDWID,
+                            TBDWNAME,
+                            XQYEAR,
+                            XQMONTH,
+                            XQDWID,
+                            XQDWNAME=rldd.r_Dm_t_Orc.f_Get_Orgidtoorgname,
+                            YDFDLJH=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber,
+                            YDGRLJH=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+                            QCKCL=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber,
+                            QMYJKCL=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber,
+                            BQJHZCGL,
+                            XSMJHCGL, 
+							JHYML=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+                            SUMJHZHL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+                            CREATOR_ID,
+                            CREATOR_DATE,
+                           XQDWID#ORGID,
+                           XQDWID#ORGLAYER,
+                            STATUS,
+                            TBRID,
+                            TBRNAME,
+                            SHRID,
+                            SHRNAME,
+                            TBSJ,
+                            XQDWID#TBDWID,
+                            TBDWNAME,
+                            XQYEAR,
+                            XQMONTH,
+                            XQDWID,
+                            XQDWID#XQDWNAME,
+                            YDFDLJH,
+                            YDGRLJH, 
+                            QCKCL,
+                            QMYJKCL,
+                            SUMJHZHL#BQJHZCGL,
+                            XSMJHCGL, 
+							JHYML,
+                            SUMJHZHL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, NZCG, JHCM, JHHC, JHZHL, BZ, HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, 
+GYSID,   NBHCBM, YJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, MDG, SJHCBM, HCLAYER, DYDW, YJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CBTBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+BW, KBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, KGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, WGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SJZHL, SJMZ, QNET, MT, AAR=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+VAR=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STAR=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STD=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, ST=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, WCQK, 
+SJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+XQDW, XQDWID, SJZHL_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, SJMZ_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, QNET_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, MT_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+AAR_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, VAR_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STAR_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STD_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+ST_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+STATUS, CREATEUSER, CREATEORGID, LCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, JHCMID, YJLGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, RLHTH, CYGYS, UPDATETIME, 
+CGJHXMID, HRD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_CONTRACT_CLAUSE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, COMP_ID, CGNF, MNXQL, MN_FRL, MN_CKJ, MN_HSRCBD, CREATE_TIME, STATUS,COMP_ID#ORGLAYER,
+CREATE_USER, CREATE_TIME,SFZX, ZCXYML, YJDXL, BGBB, BGYY,
+BGSQ,UPDATE_TIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+COMP_ID,
+CGNF,
+MN_XQL,
+MN_FRL,
+MN_CKJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber,
+MN_HSRCBD,
+TBRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,
+ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,
+CREATEUSER,
+CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+SFZX,
+ZCXYML,
+YJDXL,
+BGBB,
+BGYY,
+BGSQ,
+UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id,
+   Gysqc,
+   Sh,
+   Sjgysbm,
+   Entityid,
+   Splx,
+   CYM,
+   CYSH,
+   Frdb,
+   Gysbz,
+   Gysflname,
+   Dqid,
+   Dqname,
+   Fmisdq,
+   SJGYSID,
+   Sjgysname,
+   Sfsc,
+   Mc,
+   Ndscnl,
+   Gysclsj,
+   YSFSID,
+   Dwdz,
+   Gszcxx,
+   Gysjc,
+   Khhyzh,
+   Sfls,
+   Khhezh,
+   Sfxn,
+   Khhe,
+   Zczbj,
+   Khhy,
+   Status,
+   Hzyx,
+   Bz,
+   Lxr,
+   Phone,
+   Email,
+   Yzbm,
+   Cz,
+   Lxdz,
+   Djbh,
+   Sqdcname,
+   Sqrname,
+   Sqdcid,
+   Sqsj,
+   Sqrid,
+   Dbgh,
+   ORGID,
+   GYSZT,
+   JYNL,JJPTID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       CHANGED_CONTRACT_ID,
+       CONTRACT_TYPE,
+       ORDER_GOODS_MODE,
+       CONTRACT_TAB,
+       FIRST_PARTY_ID,
+       SECOND_PARTY_ID, 
+       BILL_NO, 
+       VERSION_NO,
+       NAME,
+       SIGN_PLACE,
+       SIGN_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       START_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       END_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       TRANSPORT,   
+       AUDIT_STATE, 
+       ORGAN_ID,
+       DATA_STATE,
+       LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       LAST_UPDATED_BY,
+       CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       CREATED_BY,    
+       DATA_ID,
+       CONTRACT_CATEGORY,
+       BUY_MODE,
+       BUY_TYPE, 
+       WEIGHT_ACCORDING,
+       ASSAY_ACCORDING,
+       IS_LOSS,
+       LOSS, 
+       PRICE_TYPE,
+       BILLING_MODE,  
+       RECEIVING_TYPE, 
+       IS_BEAR,
+       COUNTERSIGNED_CONTENT,
+       PROFIT_EVALUATION,
+       BUSINESS_TYPE,
+       MANAGE_TYPE,
+       CONTRACT_MAIN_ID,
+       BALANCE_DEPTCODE,
+       BIDDING_NO,   
+       BIDDING_ID,
+       MATCH_DATE_TYPE,
+       ID,
+       STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, 
+       ORGLAYER=r_Dm_t_Orc.f_Get_Orgidtoorglayer,
+       SPLX,
+       SOURCE_ID, 
+       HTTK, 
+       WSYBZMBSM,
+       UNIFY_RESULTMSG,
+       PAYMENT_METHOD, 
+       STANDARD_NUMBER,
+       STANDARD_QUALITY,
+       CURRENCY_UNIT,
+       SUPPLY_CHAIN_UNIT,
+       ISLAW,
+       IN_ID,
+       ATTR1,
+       IF_ACCOUNT_BY_GOODS,
+       IF_DLRL_CONTRACT,
+       REMOVE_BPM_TIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
+       REMOVE_ACCOUNT,
+       FIRST_AUDIT_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+       IF_DZCG,  
+         SQJS,
+       IS_PRICE,  
+       OPTYPE,  
+       GX_STATUS,
+       IS_EDIT </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, CJDW, CJR, CJRQ, KDID, KDNAME, ORGID, DQSCQK, BQCL, BQXL, BQKCL, GYNL, BZ, 
+FJID, GYS, KSSJ, TIMESPAN, COALTYPE, VARIETYID, POS_X, POS_Y, RZ, HF, QS, SF, HFF, 
+GDT, LF, ZHXS, KMX, HZBXWD, HZRHWD, HZRGHWD, NA2O, K2O, CAO, FEO, SIO2, AL2O3, 
+TIO2, FE2O3, ZJZS, ZDCL, ZDCLMT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, CJDW, CJR, CJRQ, KDQCID, KDQCNAME, ORGID, DQSCQK, BQCL, BQXL, BQKCL, GYNL, BZ, 
+FJID, GYSGLNAME, KSSJ, BQSJKD_TITLE, MZID_TITLE, PMID_TITLE, POS_X, POS_Y, RZ, HF, QS, SF, HFF, 
+GDT, LF, ZHXS, KMX, HZBXWD, HZRHWD, HZRGHWD, NA2O, K2O, CAO, FEO, SIO2, AL2O3, 
+TIO2, FE2O3, ZJZS, ZDCL, ZDCLMT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, GATHERE, CJRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_DateStr, SUPPLIER, 
+OREID, ORENAME=rldd.r_Dm_t_Orc.Dm_t_Ocl_KdName, OFFERAREA, COLLECTIONAREA, PLANTYPE, VARIETYID,
+ TRANSPORTATION, PRICETYPE, PRICESTARTTIME, PRICEENDTIME, PRICE, REMARK,  TREND, ORGID, 
+ ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer, ISLOCK, SHIPMENTPORTID, SOURCECODE, QUANTITY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
   </si>
 </sst>
 </file>
@@ -3273,22 +3307,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="26" width="14" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="6" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3301,8 +3336,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1">
+      <c r="E1" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3310,924 +3348,925 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="52.5" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="52.5" customHeight="1">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="20" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="20" customFormat="1" ht="27.6">
+      <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="20" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="B7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="27.6">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="18" t="s">
+    </row>
+    <row r="12" spans="1:5" s="20" customFormat="1">
+      <c r="A12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="23" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A13" s="18" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="20" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="C13" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="23" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="20" customFormat="1" ht="28.5">
-      <c r="A7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="20" customFormat="1" ht="28.5">
-      <c r="A8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="20" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="C14" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="20" customFormat="1" ht="60" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="20" customFormat="1" ht="45" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="C15" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="39" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D16" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="20" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="20" customFormat="1">
-      <c r="A12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="23" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="23" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="20" customFormat="1" ht="60" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="20" customFormat="1" ht="44.25" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="20" customFormat="1" ht="51" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="20" customFormat="1" ht="63" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="20" customFormat="1" ht="39" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="20" customFormat="1" ht="45" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="20" customFormat="1" ht="69.75" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="20" customFormat="1" ht="45" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="23" customFormat="1" ht="37.5" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>229</v>
+        <v>212</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="42.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="23" customFormat="1" ht="45.75" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="58.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="115.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="54.75" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>200</v>
+        <v>181</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="72" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="73.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="82.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="67.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="135" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="73.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="106.5" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>81</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="20" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A37" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="106.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="106.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="106.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="91.5" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="91.5" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="91.5" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91.5" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="302.39999999999998">
+      <c r="A45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="273.60000000000002">
+      <c r="A46" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="331.2">
+      <c r="A47" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="5" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="273.60000000000002">
+      <c r="A48" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="B48" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="C48" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="283.5">
-      <c r="A45" s="10" t="s">
+      <c r="D48" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="11" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="409.6">
+      <c r="A49" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="256.5">
-      <c r="A46" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="11" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="409.6">
+      <c r="A50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="310.5">
-      <c r="A47" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="11" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="374.4">
+      <c r="A51" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="256.5">
-      <c r="A48" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="11" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="374.4">
+      <c r="A52" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="409.5">
-      <c r="A49" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="11" t="s">
+    </row>
+    <row r="53" spans="1:4" ht="409.6">
+      <c r="A53" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="409.5">
-      <c r="A50" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="11" t="s">
+    </row>
+    <row r="54" spans="1:4" ht="86.4">
+      <c r="A54" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="351">
-      <c r="A51" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="11" t="s">
+    </row>
+    <row r="55" spans="1:4" ht="409.6">
+      <c r="A55" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="351">
-      <c r="A52" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="11" t="s">
+    </row>
+    <row r="56" spans="1:4" ht="374.4">
+      <c r="A56" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="409.5">
-      <c r="A53" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="11" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="409.6">
+      <c r="A57" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="C57" s="14" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="81">
-      <c r="A54" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="11" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="216">
+      <c r="A58" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="409.5">
-      <c r="A55" s="13" t="s">
+      <c r="D58" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="72">
+      <c r="A59" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B59" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="351">
-      <c r="A56" s="13" t="s">
+    <row r="60" spans="1:4" ht="360">
+      <c r="A60" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D60" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="391.5">
-      <c r="A57" s="13" t="s">
+    <row r="61" spans="1:4" ht="244.8">
+      <c r="A61" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C61" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="202.5">
-      <c r="A58" s="13" t="s">
+    <row r="62" spans="1:4" ht="273.60000000000002">
+      <c r="A62" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B62" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="67.5">
-      <c r="A59" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="11" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="43.2">
+      <c r="A63" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="337.5">
-      <c r="A60" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B60" s="11" t="s">
+    </row>
+    <row r="64" spans="1:4" ht="158.4">
+      <c r="A64" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="229.5">
-      <c r="A61" s="13" t="s">
+      <c r="D64" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="409.6">
+      <c r="A65" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B65" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="256.5">
-      <c r="A62" s="13" t="s">
+    <row r="66" spans="1:4" ht="115.2">
+      <c r="A66" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B66" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D66" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="40.5">
-      <c r="A63" s="13" t="s">
+    <row r="67" spans="1:4" ht="230.4">
+      <c r="A67" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B67" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D67" s="12" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="148.5">
-      <c r="A64" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="409.5">
-      <c r="A65" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="108">
-      <c r="A66" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="216">
-      <c r="A67" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/config/mapper.xlsx
+++ b/config/mapper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\dataSync\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE12E4F-BC41-4530-B001-48F1CE2ADBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A549E0FE-C378-4BD3-BA23-8EA6C2969277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="276" windowWidth="19836" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="映射表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="271">
   <si>
     <t>dm_tab</t>
   </si>
@@ -82,80 +82,15 @@
     <t>ID, ORGID, GYSID, GYSNAME</t>
   </si>
   <si>
-    <t>rldd.RL_ZHGL_SCXX_MTSCHQ</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_JH_NDCG</t>
   </si>
   <si>
     <t>rldd.RL_JH_NDCG</t>
   </si>
   <si>
-    <t>RL_FUEL_RLDD.RL_JH_NDCGMX</t>
-  </si>
-  <si>
     <t>rldd.RL_JH_NDCGMX</t>
   </si>
   <si>
-    <t>ID,
-NDCG_ID,
-GYS_ID, 
-DHKJ, 
-QN_YCL, 
-QN_FRL, 
-QN_CKJ, 
-QN_HSRCBD, 
-MN_FRL,
-MN_CKJ, 
-MN_HSRCBD, 
-YSFS, 
-GYS_NAME, 
-CGLX, 
-CGQY, 
-MYDQ, 
-CGFS, 
-DXL, 
-KDID, 
-KDNAME, 
-VARIETYID,
-VARIETY, 
-NDHTXX_HTH, 
-DJJZ,
-TZZT,
-JHDHL,
-ZXDHL,
-CREATE_TIME</t>
-  </si>
-  <si>
-    <t>ID,
-NDCG_ID,
-GYS_ID, 
-HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, 
-QN_YCL, 
-QN_FRL, 
-QN_CKJ, 
-QN_HSRCBD, 
-MN_FRL,
-MN_CKJ, 
-MN_HSRCBD, 
-YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Ysfs, 
-GYS_NAME, 
-CGLX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cglx, 
-CGQY, 
-MYDQ, 
-CGFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cgfs, 
-DXL, 
-KDID, 
-KDNAME, 
-VARIETYID,
-VARIETY, 
-HTH, 
-DJJZ,
-TZZT,
-JHDHL,
-MN_XQL,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_JH_NDXQ</t>
   </si>
   <si>
@@ -175,15 +110,6 @@
   </si>
   <si>
     <t>RLDD.RL_KCGL_KCJH</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_CONTRACT</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_CONTRACT_PLAN</t>
-  </si>
-  <si>
-    <t>RLDD.FM_CONTRACT_PLAN</t>
   </si>
   <si>
     <t>CONTRACT_ID, ORGAN_ID, JAN, FEB, MAR, APR, MAY, JUN, JUL, AUG, SEPT, OCT, NOV,
@@ -202,18 +128,6 @@
 PRESUM, SUPERVISE_SUM, TRANSPORT_SUM</t>
   </si>
   <si>
-    <t>RL_FUEL_RLDD.rl_contract_plan_supply</t>
-  </si>
-  <si>
-    <t>RLDD.FM_CONTRACT_PLAN_SUPPLY</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_CONTRACT_VALUATION</t>
-  </si>
-  <si>
-    <t>RLDD.FM_CONTRACT_VALUATION</t>
-  </si>
-  <si>
     <t>TEMPLATES_ID, CONTRACT_ID, BASE_PRICE, BASE_UNIT, Q_CODE, Q_VALUE, M_CODE, M_VALUE, 
 S_CODE, S_VALUE, A_CODE, A_VALUE, V_CODE, V_VALUE, ST_VALUE, ORGAN_ID, DATA_STATE, 
 LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN, 
@@ -228,9 +142,6 @@
 TAX_RATE, ID, SOURCE_ID</t>
   </si>
   <si>
-    <t>RLDD.FM_CONTRACT_CLAUSE</t>
-  </si>
-  <si>
     <t>PARENT_ID, VALUATION_ID, LEFT_VALUE, LEFT_SYMBOL, LABORATORY_INDEX, RIGHT_SYMBOL, 
 RIGHT_VALUE, BASE_PIRCE, BASE_UNIT, FLOATING_START, FLOATING_POINT, FLOATING_PRICE, 
 FLOATING_PRICE_UNIT, KL_METHOD, KC_WEIGHT, KC_UNIT, ITEM_ID, YS_PRICE, ORGAN_ID, 
@@ -262,9 +173,6 @@
     <t>RL_FUEL_RLDD.RL_CONTRACT_COST_MAIN</t>
   </si>
   <si>
-    <t>rldd.FM_CONTRACT_COST_MAIN</t>
-  </si>
-  <si>
     <t>ID, CONTRACT_ID, ORGAN_ID, SUPPLIER_ID, TRANSPORT, MINE_ID, FROM_STATION, DISTANCE, TO_STATION, START_DATE, END_DATE, DEDUCT_METHOD, SOURCE_ID, DATA_ID, DATA_STATE, LAST_UPDATE_DATE, 
 LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN</t>
   </si>
@@ -287,12 +195,6 @@
   <si>
     <t>ID, MAIN_ID, COST_ID, PRICE, UNIT, DATA_STATE, CAR_TYPE, DATA_ID, 
 LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY, CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, LAST_UPDATE_LOGIN</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTING</t>
-  </si>
-  <si>
-    <t>rldd.FM_CONTRACT_WEIGHTING</t>
   </si>
   <si>
     <t>ID, VALUATION_ID, WEIGHTING_METHOD, LEFT_VALUE, LEFT_SYMBOL, LABORATORY_INDEX, RIGHT_SYMBOL, RIGHT_VALUE, IS_SINGLE, DATA_STATE, CONTRACT_ID, WEIGHTED_GROUP1, WEIGHTED_GROUP2, WEIGHTED_GROUP1_NAME, 
@@ -306,43 +208,14 @@
 LAST_UPDATE_LOGIN</t>
   </si>
   <si>
-    <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTING_ADDTARGE</t>
-  </si>
-  <si>
     <t>rldd.fm_weighting_addtarget</t>
   </si>
   <si>
     <t>ID, WEIGHTING_ID, LEFT_VALUE, LEFT_SYMBOL, LABORATORY_INDEX, RIGHT_SYMBOL, RIGHT_VALUE, DATA_STATE, DATA_ID, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTINT_ELEMET</t>
   </si>
   <si>
     <t>ID, WEIGHTING_ID, DATA_STATE, START_DATE, END_DATE, MINE_ID, FROM_STATION, GOODS_ID, PRODUCT_ID, COAL_KIND_ID, 
 LM_SUPPLIER_ID, CUSTOMER_ID, DATA_ID, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK</t>
-  </si>
-  <si>
-    <t>rldd.RL_HTGL_JHDXQK_ZB</t>
-  </si>
-  <si>
-    <t>ID, ORGID, ORGNAME, ORGLAYER, YF, FILEID, FJNAME, STATUS, DCSL, CCSBTIME, ZHSBTIME, PPD, JQPJJG, XTPPD, SCSJ, DATASOURCE, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
-  </si>
-  <si>
-    <t>ID, ORGID, ORGNAME, ORGLAYER, YF, FILEID, FJNAME,
-status=rldd.r_Dm_t_Orc.Dm_t_Ocl_Sbstatus_ext ,DCSL,CCSBTIME, ZHSBTIME, 
-PPD, JQPJJG,XTPPD, SCSJ,1 DATASOURCE, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK_DETAIL</t>
-  </si>
-  <si>
-    <t>rldd.RL_HTGL_JHDXQK</t>
-  </si>
-  <si>
-    <t>ID, ORGID, ORGNAME, ORGLAYER, DW, YF, FILEID, HTBH, GYS, YSFS, SJDHL, SJLMFRL, SJLMHFF, SJLMLF, SJLMKJ, SJLMYF, SJLMQTF, SJLMDCJ, SJLMHSBD, SJLMBHSBD, JSDBH, MZLX, MZ, MZSYS, REMARK, ISAGREE, DJFS, FZGS, FJ, DJ, FZ, DZ, FHDW, SHDW, VARIETY, HY, JHDXQKID, GYSID, FZID, DZID, FJID, DJID, FHDWID, SHDWID, VARIETYID, YSFSID, DWID, MZID, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
   </si>
   <si>
     <t>ID, ORGID, ORGNAME, ORGLAYER, DW, YF, FILEID, HTBH, GYS, YSFS, SJDHL, SJLMFRL, SJLMHFF, 
@@ -375,9 +248,6 @@
 UPDATEUSER, 
 UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
 JZRL, DXQDDE, QTJXQDDE</t>
-  </si>
-  <si>
-    <t>RLDD.RL_MARKETINFO_COALPRICEINFO</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.RL_MARKETINFO_CXCXX</t>
@@ -960,97 +830,6 @@
     <t>RLDD.Rl_Manual_Sample_Allow</t>
   </si>
   <si>
-    <t>Id,
-Start_Time,
-End_Time,
-Status#Is_Succeed, 
-Appover_Aide,
-Appover_Level,
-Cause_Type,
-Cause,
-Is_Flag,
-Mzbm,
-Bzmzbm,
-Allow_Type,
-Appover_Result,
-Appover_Span,
-Appover_Person,
-Folw_Status,
-Flag,
-Orgid,
-Orgname,
-Orglayer,
-Status#Status,
-Createtime,
-Createuser,
-Updatetime,
-Updateuser,
-Allow_Time,
-Appover_Time,
-Allow_Code,
-Fjid,
-Gzlx,
-Lmlx,
-Sbbh,
-Jhhfsj,
-Pch,
-Xkzmc,
-Yljcs,
-Nljcs,
-Yljsc,
-Nljsc,
-Cause_Step,
-Variety,
-Varietyid</t>
-  </si>
-  <si>
-    <t>Id,
-Start_Time,
-End_Time,
-Is_Succeed=r_Dm_t_Orc.f_Get_Rgcyzttosucceed,
-Appover_Aide,
-Appover_Level,
-Cause_Type,
-Cause,
-Is_Flag,
-Mzbm,
-Bzmzbm,
-Allow_Type,
-Appover_Result,
-Appover_Span,
-Appover_Person,
-Folw_Status,
-Flag,
-Orgid,
-Orgname,
-Orglayer,
-Status=r_Dm_t_Orc.Dm_t_Ocl_Status,  
-Createtime,
-Createuser,
-Updatetime,
-Updateuser,
-Allow_Time,
-Appover_Time,
-Allow_Code,
-Fjid,
-Gzlx,
-Lmlx,
-Sbbh,
-Jhhfsj,
-Pch,
-Xkzmc,
-Yljcs,
-Nljcs,
-Yljsc,
-Nljsc,
-Cause_Step,
-Variety,
-Varietyid</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.Rl_Manual_Sample_Allow_Detail</t>
-  </si>
-  <si>
     <t>rldd.Rl_Manual_Sample_Allow_Detail</t>
   </si>
   <si>
@@ -1064,34 +843,6 @@
 Appover_Time,
 Allow_Time,
 Status,
-Orglayer,
-Orgname,
-Cause_Type,
-Cause,
-Orgid,
-Sfscsq,
-Allow_Type,
-Gzlx,
-Lmlx,
-Jhhfsj,
-Sbbh,
-Pch,
-Is_Flag,
-Cause_Step,
-Variety,
-Varietyid</t>
-  </si>
-  <si>
-    <t>Id,
-Mainid,
-Start_Time,
-End_Time,
-Is_Succeed,
-Appover_Aide,
-Appover_Level,
-Appover_Time,
-Allow_Time,
-Status=r_Dm_t_Orc.Dm_t_Ocl_Status,  
 Orglayer,
 Orgname,
 Cause_Type,
@@ -1668,12 +1419,6 @@
 ORGID#ORGLAYER, STATUS, XQSL, SFZX, BGBB, BGYY, BGSQ, BNMYJKC, MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ </t>
   </si>
   <si>
-    <t xml:space="preserve"> ID, COMP_ID, XQNF, FD_BNWC, FD_BNYJ, FD_MNYJ, DM_BNHY, DM_BNYJ, DM_MNYJ, GR_BNHY, 
-GR_BNYJ, GR_MNYJ, REZHI, HFF, LIUFEN, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, ORGID, 
-ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, XQSL, SFZX, BGBB, BGYY, BGSQ, BNMYJKC, MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ 
- </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ID, NDXQ_ID, FENQI_ID, FD_BNWC, FD_BNYJ, FD_MNYJ, DM_BNHY, DM_BNYJ, GR_BNHY, GR_BNYJ,
 GR_MNYJ, DM_MNYJ, REZHI, HFF, LIUFEN, HUIFEN, SHUIFEN, HRD, KMXS, XQSL, RNO, BNMYJKC, 
 MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ,CREATOR_TIME</t>
@@ -1734,63 +1479,12 @@
     <t xml:space="preserve">RLDD.RL_JH_YDCGMX </t>
   </si>
   <si>
-    <t>ID, YDCG_ID, GYS_ID,GYS_ID#GYS_NAME, HTSX, CGLX, CGQY,   YSFS, YSSX, YJHL, MZ, FRL, HFF, LF,
-KJ, YF, QTF, DCJ, HSBD, BHSBD, BZ, CZSJ, FENQI_ID, QCKC, QMKC,   
-DZID, 
-DZID#DZ, 
-FZID, 
-FZID#FZ, 
-SFFGWBA, DJFS, CGFS, MYDQ, MJSL, YFSL, KDID,KDID#KDNAME,   RNO , VARIETYID, VARIETYID#VARIETY,
-PLANTYPE, FDBJXY, COALTYPE, COALTYPEDC, REMARK, COALTYPEVIEW, HTID, FUELMXID, CREATOR_DATE</t>
-  </si>
-  <si>
-    <t>ID, YDCG_ID, 
-GYS_ID, 
-GYS_NAME=rldd.r_Dm_t_Orc.Dm_t_Ocl_GysName,
-HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, CGLX, CGQY,   
-YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Ysfs, YSSX, YJHL, MZ, FRL, HFF, LF,
-KJ, YF, QTF, DCJ, HSBD, BHSBD, BZ, CZSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
-FENQI_ID, QCKC, QMKC,   
-DZID,
-DZ= rldd.r_Dm_t_Orc.Dm_t_Ocl_StationName,
-FZID, 
-FZ= rldd.r_Dm_t_Orc.Dm_t_Ocl_StationName,
-SFFGWBA, DJFS, CGFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cgfs, MYDQ, MJSL, YFSL, 
-KDID,   
-KDNAME=rldd.r_Dm_t_Orc.Dm_t_Ocl_KdName,
-RNO , VARIETYID,
-VARIETY=rldd.r_Dm_t_Orc.Dm_t_Ocl_PmName,
-PLANTYPE, FDBJXY, COALTYPE, COALTYPEDC, REMARK, COALTYPEVIEW, 
-HTID, FUELMXID,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ID, ORGID, JHYF, JHKC, SJKC, YHKC, CREATOR_ID, CREATOR_DATE, MODIFY_ID, MODIFY_DATE,
  ORGLAYER, STATUS, TZKC, ZJYY, KYTS, LJHY, SYHKC, SFZX, BGBB, BGYY, BGSQ </t>
   </si>
   <si>
     <t xml:space="preserve"> ID, ORGID, JHYF, JHKC, SJKC, YHKC, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
  ORGLAYER, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, TZKC, ZJYY, KYTS, LJHY, SYHKC, SFZX, BGBB, BGYY, BGSQ</t>
-  </si>
-  <si>
-    <t>rl_fuel_mc.RL_GYL_WL_YSXX</t>
-  </si>
-  <si>
-    <t>ID,
-ORG_ID,
-ORG_NAME,
-ORG_LAYER,
-CREATE_USER,
-CREATE_TIME,
-UPDATE_USER, 
-UPDATETIME,
-RQ, 
-CM,
-CX,
-CD, 
-CC,
-CK,
-ORDERNO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ID,
@@ -1815,9 +1509,6 @@
  COAL_KIND_ID, SUPPLIER_ID, MINE_ID, DATA_STATE, LAST_UPDATE_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LAST_UPDATED_BY,
   CREATION_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CREATED_BY, LAST_UPDATE_LOGIN, LM_SUPPLIER_ID, START_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, END_DATE=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date,
    DATA_ID, BALANCE_NO, ID, PURCHASING_AREA, CONTRACT_ID, IS_DECLARE, COUNTRY_ORIGIN, TRANSPORT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RLDD.FM_CONTRACT</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1890,14 +1581,6 @@
        OPTYPE,  
        GX_STATUS,
        IS_EDIT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ, NZCG, JHCM, JHHC, JHZHL, BZ, DHKJ, 
-GYSID,   NBHCBM, YJDCRQ, MDG, SJHCBM, HCLAYER, DYDW, YJDGSJ, SJDGSJ, CBTBSJ, 
-BW, KBSJ, KGSJ, WGSJ, LGSJ, SJZHL, SJMZ, QNET, MT, AAR, VAR, STAR, STD, ST, WCQK, SJDCRQ, 
-XQDW, XQDWID, SJZHL_DC, SJMZ_DC, QNET_DC, MT_DC, AAR_DC, VAR_DC, STAR_DC, STD_DC, ST_DC, 
-STATUS, CREATEUSER, CREATEORGID, LCRQ, JHCMID, YJLGSJ, RLHTH, CYGYS, UPDATETIME, 
-YDCGMXID, HRD </t>
   </si>
   <si>
     <t>ID,
@@ -2116,24 +1799,6 @@
    DQID</t>
   </si>
   <si>
-    <t>ID,
-         NAME,
-         BM,
-         PARENTID,
-         PARENTNAME,
-         DQNAME,
-         TYPE,
-         XZ,
-         JD,
-         WD,
-         SFQY,
-         SFLS,
-         MAXTRANSPORT,
-         AVGTRANSPORT,
-         LAYER,
-         DQID</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ID, ZDID, ZDNAME, KDNAME, KDID, CREATETIME, TYPE</t>
   </si>
   <si>
@@ -2544,19 +2209,6 @@
                             XSMJHCGL, 
 							JHYML,
                             SUMJHZHL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, NZCG, JHCM, JHHC, JHZHL, BZ, HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, 
-GYSID,   NBHCBM, YJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, MDG, SJHCBM, HCLAYER, DYDW, YJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, CBTBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
-BW, KBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, KGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, WGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, LGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SJZHL, SJMZ, QNET, MT, AAR=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
-VAR=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STAR=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STD=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, ST=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, WCQK, 
-SJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
-XQDW, XQDWID, SJZHL_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, SJMZ_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, QNET_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, MT_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
-AAR_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, VAR_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STAR_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STD_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
-ST_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
-STATUS, CREATEUSER, CREATEORGID, LCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, JHCMID, YJLGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, RLHTH, CYGYS, UPDATETIME, 
-CGJHXMID, HRD</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2738,7 +2390,443 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>RL_FUEL_RLDD.Rl_Manual_Sample_Allow_Detail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id,
+Start_Time,
+End_Time,
+Status#Is_Succeed, 
+Appover_Aide,
+Appover_Level,
+Cause_Type,
+Cause,
+Is_Flag,
+Mzbm,
+Bzmzbm,
+Allow_Type,
+Appover_Result,
+Appover_Span,
+Appover_Person,
+Folw_Status,
+Flag,
+Orgid,
+Orgname,
+Orglayer,
+Status#Status,
+Createtime,
+Createuser,
+Updatetime,
+Updateuser,
+Allow_Time,
+Appover_Time,
+Allow_Code,
+Fjid,
+Gzlx,
+Lmlx,
+Sbbh,
+Jhhfsj,
+Pch,
+Xkzmc,
+Yljcs,
+Nljcs,
+Yljsc,
+Nljsc,
+Cause_Step,
+Variety,
+Varietyid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id,
+Mainid,
+Start_Time,
+End_Time,
+Is_Succeed,
+Appover_Aide,
+Appover_Level,
+Appover_Time,
+Allow_Time,
+Status=r_Dm_t_Orc.Dm_t_Ocl_Status, 
+Orglayer,
+Orgname,
+Cause_Type,
+Cause,
+Orgid,
+Sfscsq,
+Allow_Type,
+Gzlx,
+Lmlx,
+Jhhfsj,
+Sbbh,
+Pch,
+Is_Flag,
+Cause_Step,
+Variety,
+Varietyid</t>
+  </si>
+  <si>
+    <t>Id,
+Start_Time,
+End_Time,
+Is_Succeed=r_Dm_t_Orc.f_Get_Rgcyzttosucceed,
+Appover_Aide,
+Appover_Level,
+Cause_Type,
+Cause,
+Is_Flag,
+Mzbm,
+Bzmzbm,
+Allow_Type,
+Appover_Result,
+Appover_Span,
+Appover_Person,
+Folw_Status,
+Flag,
+Orgid,
+Orgname,
+Orglayer,
+Status=r_Dm_t_Orc.Dm_t_Ocl_Status,
+Createtime,
+Createuser,
+Updatetime,
+Updateuser,
+Allow_Time,
+Appover_Time,
+Allow_Code,
+Fjid,
+Gzlx,
+Lmlx,
+Sbbh,
+Jhhfsj,
+Pch,
+Xkzmc,
+Yljcs,
+Nljcs,
+Yljsc,
+Nljsc,
+Cause_Step,
+Variety,
+Varietyid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, YDCG_ID, 
+GYS_ID, 
+GYS_NAME=rldd.r_Dm_t_Orc.Dm_t_Ocl_GysName,
+HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, CGLX, CGQY,   
+YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Ysfs, YSSX, YJHL, MZ, FRL, HFF, LF,
+KJ, YF, QTF, DCJ, HSBD, BHSBD, BZ, CZSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+FENQI_ID, QCKC, QMKC,   
+DZID,
+DZ= rldd.r_Dm_t_Orc.Dm_t_Ocl_StationName,
+FZID, 
+FZ= rldd.r_Dm_t_Orc.Dm_t_Ocl_StationName,
+SFFGWBA, DJFS, CGFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cgfs, MYDQ, MJSL, YFSL, 
+KDID,   
+KDNAME=rldd.r_Dm_t_Orc.Dm_t_Ocl_KdName,
+RNO , VARIETYID,
+VARIETY=rldd.r_Dm_t_Orc.Dm_t_Ocl_PmName,
+PLANTYPE, FDBJXY, COALTYPE, COALTYPEDC, REMARK, COALTYPEVIEW, 
+HTID, FUELMXID,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, YDCG_ID, GYS_ID,GYS_ID#GYS_NAME, HTSX, CGLX, CGQY,   YSFS, YSSX, YJHL, MZ, FRL, HFF, LF,
+KJ, YF, QTF, DCJ, HSBD, BHSBD, BZ, CZSJ, FENQI_ID, QCKC, QMKC,   
+DZID, 
+DZID#DZ, 
+FZID, 
+FZID#FZ, 
+ZDYL,DJFS, CGFS, MYDQ, MJSL, YFSL, KDID,KDID#KDNAME,   RNO , VARIETYID, VARIETYID#VARIETY,
+PLANTYPE, FDBJXY, COALTYPE, COALTYPEDC, REMARK, COALTYPEVIEW, HTID, FUELMXID, CREATOR_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_CONTRACT_NEGOTIATION</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_MARKETINFO_COALPRICEINFO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.rl_jh_cgsq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, COMP_ID, XQNF, FD_BNWC, FD_BNYJ, FD_MNYJ, DM_BNHY, DM_BNYJ, DM_MNYJ, GR_BNHY, 
+GR_BNYJ, GR_MNYJ, REZHI, HFF, LIUFEN, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, ORGID, 
+ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer, STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status, XQSL, SFZX, BGBB, BGYY, BGSQ, BNMYJKC, MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ 
+ </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,ORG_ID,BANO, KDID, gysid, 
+FZID, VARIETYID, 
+DZID,YJHL,FRL,HFF,LF,KJ,
+YJQSRQ, 
+YJJSRQ,
+SQDATE,
+DJJZ ,SPLX,STATUS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Status,SQYF=rldd.r_Dm_t_Orc.Dm_t_Ocl_DateMonth,ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer,OPERATER,OPERATE_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, NEGOTIATION_NO, MINE_ID, SUPPLIER_ID, FROM_STATION, 
+PRODUCT_ID, TO_STATION, APPLY_NUMBER, QNET, VOLATILE_MATTER, 
+SLIPHUR, MINERAL_PRICE, 
+START_DATE, END_DATE, SING_DATE, PRICE_MECHANISM, SPLX, STATUS,SING_DATE#SQYF,ORGID#ORGLAYER,MODIFY_NAME,UPDATETIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+ORG_ID,
+ORG_NAME,
+ORG_LAYER,
+CREATE_USER,
+CREATE_TIME,
+UPDATE_USER,
+UPDATE_TIME,
+RQ,
+CM,
+CX,
+CD, 
+CC,
+CK,
+ORDERNO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_MC.RL_GYL_WL_YSXX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_ZHGL_SCXX_MTSCHQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, YJZCRQ, NZCG, JHCM, JHHC, JHZHL, BZ, DHKJ, 
+GYSID,   NBHCBM,YJDGSJ , MDG, SJHCBM, HCLAYER, DYDW,YJDCRQ , SJDGSJ, CREATOR_DATE, 
+BW, KBSJ, KGSJ, WGSJ, LGSJ, SJZHL, SJMZ, QNET, MT, AAR, VAR, STAR, STD, ST, WCQK, SJDCRQ, 
+XQDW, XQDWID, SJZHL_DC, SJMZ_DC, QNET_DC, MT_DC, AAR_DC, VAR_DC, STAR_DC, STD_DC, ST_DC, 
+STATUS, CREATEUSER, CREATEORGID, LCRQ, JHCMID, YJLGSJ, RLHTH, CYGYS, UPDATETIME, 
+YDCGMXID, HRD,jhcgl,MT,QNET,SJZHL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, FOREIGNID, JHMZ, RZ, LF, HFF, QT, 
+YJZCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, NZCG,JHCMID , JHHC, JHZHL, BZ, 
+HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, 
+GYSID,   NBHCBM, YJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, MDG, 
+SJHCBM, HCLAYER, DYDW, YJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+SJDGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+CBTBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+BW, KBSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+KGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+WGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+LGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, SJZHL, SJMZ, QNET, MT, AAR=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+VAR=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+STAR=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STD=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+ST=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, WCQK, 
+SJDCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, 
+XQDW, XQDWID, SJZHL_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+SJMZ_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, QNET_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+MT_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+AAR_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, VAR_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+STAR_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, STD_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+ST_DC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, 
+STATUS, CREATEUSER, CREATEORGID, LCRQ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, JHCM, 
+YJLGSJ=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, RLHTH, CYGYS, UPDATETIME, 
+CGJHXMID, HRD,jhcgl=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber,
+MT=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber,QNET=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber,
+SJZHL=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>condition</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_CONTRACT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> RLDD.FM_CONTRACT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.FM_CONTRACT_PLAN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.FM_CONTRACT_PLAN_SUPPLY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.FM_CONTRACT_VALUATION</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.FM_CONTRACT_CLAUSE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.rl_contract_plan_supply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_CONTRACT_PLAN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_CONTRACT_VALUATION</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.FM_CONTRACT_COST_MAIN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.FM_CONTRACT_WEIGHTING</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTING</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTING_ADDTARGE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_CONTRACT_WEIGHTINT_ELEMET</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_HTGL_JHDXQK_ZB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGID#ORGLAYER, YF, FILEID, FJNAME, STATUS, DCSL, CCSBTIME, ZHSBTIME, PPD, JQPJJG, XTPPD, SCSJ,  CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer, YF, FILEID, FJNAME,
+status=rldd.r_Dm_t_Orc.Dm_t_Ocl_Sbstatus_ext ,DCSL,CCSBTIME, ZHSBTIME, 
+PPD, JQPJJG,XTPPD, SCSJ, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+NDCG_ID,
+GYS_ID, 
+HTSX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Dhkj, 
+QN_YCL, 
+QN_FRL, 
+QN_CKJ, 
+QN_HSRCBD, 
+MN_FRL,
+MN_CKJ, 
+MN_HSRCBD, 
+YSFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Ysfs, 
+GYS_NAME, 
+CGLX=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cglx, 
+CGQY, 
+MYDQ, 
+CGFS=rldd.r_Dm_t_Orc.Dm_t_Ocl_Cgfs, 
+DXL, 
+KDID, 
+KDNAME, 
+VARIETYID,
+VARIETY, 
+HTH,
+NDHTXX_HTH,
+DJJZ,
+TZZT,
+JHDHL,
+MN_XQL,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+NDCG_ID,
+GYS_ID, 
+DHKJ, 
+QN_YCL, 
+QN_FRL, 
+QN_CKJ, 
+QN_HSRCBD, 
+MN_FRL,
+MN_CKJ, 
+MN_HSRCBD, 
+YSFS, 
+GYS_NAME, 
+CGLX, 
+CGQY, 
+MYDQ, 
+CGFS, 
+DXL, 
+KDID, 
+KDNAME, 
+VARIETYID,
+VARIETY, 
+NDSJYWC_HTH,
+NDHTXX_HTH, 
+DJJZ,
+TZZT,
+JHDHL,
+ZXDHL,
+CREATE_TIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_JH_NDCGMX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,
+         NAME,
+         BM,
+         PARENTID,
+         PARENTNAME,
+         DQNAME,
+         TYPE,
+         XZ,
+         JD,
+         WD,
+         SFQY,
+         SFLS,
+         MAXTRANSPORT,
+         AVGTRANSPORT,
+         LAYER,
+         DQID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK_DETAIL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_HTGL_JHDXQK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGLAYER, DW, YF, FILEID, HTBH, GYS, YSFS, SJDHL, SJLMFRL, SJLMHFF, SJLMLF, SJLMKJ, SJLMYF, SJLMQTF, SJLMDCJ, SJLMHSBD, SJLMBHSBD, JSDBH, MZLX, MZ, MZSYS, REMARK, ISAGREE, DJFS, FZGS, FJ, DJ, FZ, DZ, FHDW, SHDW, VARIETY, HY, JHDXQKID, GYSID, FZID, DZID, FJID, DJID, FHDWID, SHDWID, VARIETYID, YSFSID, DWID, MZID, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"false","master_tab":"RL_FUEL_RLDD.RL_DYGL_JHDXQK","master_field":"status","master_value":"3#2","relation_field":"JHDXQKID"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"true","field":"status","field_value":"3#2",children:[
+		{"tab_name":"RL_FUEL_RLDD.RL_DYGL_JHDXQK_DETAIL","children":[],"relation_field":"JHDXQKID"}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2826,6 +2914,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2845,7 +2934,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2907,6 +2996,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2916,7 +3014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2983,13 +3081,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3307,19 +3408,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
     <col min="6" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3336,8 +3437,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>264</v>
+      <c r="E1" s="24" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1">
@@ -3348,10 +3449,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1">
@@ -3362,10 +3463,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1">
@@ -3373,27 +3474,27 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>240</v>
+      <c r="A5" s="23" t="s">
+        <v>203</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="20" customFormat="1" ht="57.75" customHeight="1">
@@ -3404,13 +3505,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="20" customFormat="1" ht="27.6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="20" customFormat="1" ht="41.4">
       <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
@@ -3418,10 +3519,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="20" customFormat="1" ht="27.6">
@@ -3432,10 +3533,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="20" customFormat="1" ht="47.25" customHeight="1">
@@ -3446,10 +3547,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1">
@@ -3457,27 +3558,27 @@
         <v>16</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="20" customFormat="1" ht="29.25" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="20" customFormat="1">
@@ -3494,779 +3595,798 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="23" customFormat="1" ht="45.75" customHeight="1">
+    <row r="13" spans="1:5" s="22" customFormat="1" ht="45.75" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="23" customFormat="1" ht="42.75" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="22" customFormat="1" ht="42.75" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="20" customFormat="1" ht="60" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="39" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="20" customFormat="1" ht="44.25" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="20" customFormat="1" ht="51" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="20" customFormat="1" ht="63" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="20" customFormat="1" ht="39" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="20" customFormat="1" ht="45" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="20" customFormat="1" ht="69.75" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="20" customFormat="1" ht="45" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="23" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>211</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="22" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="42.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="23" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="22" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A27" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="58.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="115.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="54.75" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="72" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="73.5" customHeight="1">
       <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="82.5" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="67.5" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="135" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="73.5" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="20" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A37" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="82.5" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="D37" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="116.4" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="106.5" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="E39" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="106.5" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="B40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="91.5" customHeight="1">
+      <c r="A41" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="67.5" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="C41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="91.5" customHeight="1">
+      <c r="A42" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B42" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="135" customHeight="1">
-      <c r="A35" s="3" t="s">
+    <row r="43" spans="1:5" ht="91.5" customHeight="1">
+      <c r="A43" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="91.5" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="91.5" customHeight="1">
+      <c r="A45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C45" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="331.2">
+      <c r="A46" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="B46" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="73.5" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="C46" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="D46" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="4" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="316.8">
+      <c r="A47" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="20" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A37" s="18" t="s">
+      <c r="B47" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" s="18" t="s">
+      <c r="C47" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="106.5" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="D47" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="4" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="360">
+      <c r="A48" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="B48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="C48" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="106.5" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="D48" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="316.8">
+      <c r="A49" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="B49" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="C49" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="106.5" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="D49" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="91.5" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="91.5" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="91.5" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="91.5" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="302.39999999999998">
-      <c r="A45" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="273.60000000000002">
-      <c r="A46" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="331.2">
-      <c r="A47" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="273.60000000000002">
-      <c r="A48" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="409.6">
-      <c r="A49" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="409.6">
       <c r="A50" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="409.6">
+      <c r="A51" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="388.8">
+      <c r="A52" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="374.4">
+      <c r="A53" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="409.6">
+      <c r="A54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="86.4">
+      <c r="A55" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="409.6">
+      <c r="A56" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="374.4">
+      <c r="A57" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="409.6">
+      <c r="A58" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="C58" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="12" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="216">
+      <c r="A59" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="374.4">
-      <c r="A51" s="13" t="s">
+      <c r="B59" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C59" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D59" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="86.4">
+      <c r="A60" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="374.4">
-      <c r="A52" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="D60" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="12" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="388.8">
+      <c r="A61" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="409.6">
-      <c r="A53" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="D61" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="86.4">
-      <c r="A54" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="409.6">
-      <c r="A55" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="374.4">
-      <c r="A56" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="409.6">
-      <c r="A57" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="216">
-      <c r="A58" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="72">
-      <c r="A59" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="360">
-      <c r="A60" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="244.8">
-      <c r="A61" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="273.60000000000002">
       <c r="A62" s="13" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="43.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="273.60000000000002">
       <c r="A63" s="13" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="158.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="43.2">
       <c r="A64" s="13" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="409.6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="158.4">
       <c r="A65" s="13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="115.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="409.6">
       <c r="A66" s="13" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="230.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="115.2">
       <c r="A67" s="13" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>176</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="259.2">
+      <c r="A68" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/config/mapper.xlsx
+++ b/config/mapper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\dataSync\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A549E0FE-C378-4BD3-BA23-8EA6C2969277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D31A9F-573C-4359-B03D-D3BD2C6FB74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="276" windowWidth="19836" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="映射表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="280">
   <si>
     <t>dm_tab</t>
   </si>
@@ -40,15 +40,6 @@
     <t>rldd.RL_GYSGL_KDGL</t>
   </si>
   <si>
-    <t>RL_FUEL_RLDD.RL_DCZDGXWHB</t>
-  </si>
-  <si>
-    <t>rldd.RL_GYSGL_KDZD</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_GYSGL_GYSXX</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_ZHGL_STATION</t>
   </si>
   <si>
@@ -61,9 +52,6 @@
     <t>RL_FUEL_RLDD.RL_GYSGL_GYSKD</t>
   </si>
   <si>
-    <t>rldd.RL_GYSGL_GYSKD</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_ZHGL_AREA</t>
   </si>
   <si>
@@ -79,9 +67,6 @@
     <t>rldd.RL_GYSGL_POWERGYS</t>
   </si>
   <si>
-    <t>ID, ORGID, GYSID, GYSNAME</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_JH_NDCG</t>
   </si>
   <si>
@@ -89,12 +74,6 @@
   </si>
   <si>
     <t>rldd.RL_JH_NDCGMX</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_JH_NDXQ</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_JH_NDXQMX</t>
   </si>
   <si>
     <t>RLDD.RL_JH_NDXQMX</t>
@@ -218,11 +197,10 @@
 LM_SUPPLIER_ID, CUSTOMER_ID, DATA_ID, LAST_UPDATE_DATE, LAST_UPDATED_BY, CREATION_DATE, CREATED_BY, LAST_UPDATE_LOGIN</t>
   </si>
   <si>
-    <t>ID, ORGID, ORGNAME, ORGLAYER, DW, YF, FILEID, HTBH, GYS, YSFS, SJDHL, SJLMFRL, SJLMHFF, 
-SJLMLF, SJLMKJ, SJLMYF, SJLMQTF, SJLMDCJ, SJLMHSBD, SJLMBHSBD, JSDBH, MZLX, MZ, MZSYS, REMARK, 
-ISAGREE, DJFS, FZGS, FJ, DJ, FZ, DZ, FHDW, SHDW, VARIETY, HY,FKID, GYSID, FZID, DZID, 
-FJID, DJID, FHDWID, SHDWID, VARIETYID, YSFSID, DWID, MZID, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, 
-UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK</t>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK_DETAIL</t>
   </si>
   <si>
     <t>rl_fuel_rldd.RL_DYGL_ROLL_NEED</t>
@@ -231,16 +209,7 @@
     <t>RL_FUEL_RLDD.RL_DYGL_WATERCOALPLAN</t>
   </si>
   <si>
-    <t>rldd.rl_rljy_xsmpcjhrbb_zb</t>
-  </si>
-  <si>
     <t>RL_FUEL_RLDD.RL_LDGK_QTHY_JZQD_YMDE</t>
-  </si>
-  <si>
-    <t>RLDD.RL_LDGK_QTHY_JZQD_YMDE</t>
-  </si>
-  <si>
-    <t>ID, S_CREATOR_NAME, S_CREATE_TIME, MODIFY_NAME, S_UPDATE_TIME, JZRL, DXQDDE, QTJXQDDE</t>
   </si>
   <si>
     <t>ID, CREATEUSER, 
@@ -254,58 +223,6 @@
   </si>
   <si>
     <t>RLDD.RL_MARKETINFO_CXCXX</t>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.Rl_Zhgl_Rlhb_Dcjcxxgl_Zb</t>
-  </si>
-  <si>
-    <t>Rldd.Rl_Zhgl_Rlhb_Dcjcxxgl_Zb</t>
-  </si>
-  <si>
-    <t>Id,
-s_Parent_Id,
-s_Parent_Id#Orgid ,
-s_Parent_Id#Orgname,
-s_Parent_Id#Orglayer,
-FDJZ ,
-MZID ,
-Vdafbottom,
-Vdaftop,
-Stdtop,
-Qs,
-Zjrl,
-SJFDHM,
-Cydl,
-Rlmdwfrl,
-xql Yml,
-Sjmzfrl,
-Sjmzql,
-So2,
-Nox,
-Smoke</t>
-  </si>
-  <si>
-    <t>Id,
-Dcjcxxid,
-Orgid = r_Dm_t_Orc.f_Get_Jzpidtooid,
-Orgname = r_Dm_t_Orc.f_Get_Jzpidtoname,
-Orglayer = r_Dm_t_Orc.f_Get_Jzpidtolayer,
-Jz,
-Mz,
-Vdafbottom,
-Vdaftop,
-Stdtop,
-Qs,
-Zjrl,
-Fdmh,
-Cydl,
-Rlmdwfrl,
-Yml,
-Sjmzfrl,
-Sjmzql,
-So2,
-Nox,
-Smoke</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.Rl_Ldgk_Qthy_Jzqd_Main</t>
@@ -638,34 +555,6 @@
 Zcfj3,
 Zcfj4,
 Audit_End_Time</t>
-  </si>
-  <si>
-    <t>Id,
-Createuser,
-Createtime=r_Dm_t_Orc.Dm_t_Ocl_Date,
-Updateuser,
-Updatetime=r_Dm_t_Orc.Dm_t_Ocl_Date,
-tatus=r_Dm_t_Orc.Dm_t_Ocl_Status, 
-Orgid,
-Orglayer,
-Orgname,
-Jbr,
-Lxdh,
-Sqrq=r_Dm_t_Orc.Dm_t_Ocl_Date,
-Bcsqkcqzzl,
-Nljkczl,
-Nljqlcs,
-Nljsqcs,
-Rcsykchj,
-Zwqllhj,
-Bcsqkclhj,
-Spfj,
-Memo,
-Zcfj1,
-Zcfj2,
-Zcfj3,
-Zcfj4,
-Audit_End_Time=r_Dm_t_Orc.Dm_t_Ocl_Date</t>
   </si>
   <si>
     <t>RL_FUEL_RLDD.Rl_Ldgk_Qthy_Zwql</t>
@@ -1429,9 +1318,6 @@
 MNMYJKC, GRL_BNWC, GRL_BNYJ, GRL_MNYJ,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
   </si>
   <si>
-    <t xml:space="preserve">RL_FUEL_RLDD.RL_JH_YDXQ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> RLDD.RL_JH_YDXQ </t>
   </si>
   <si>
@@ -1447,18 +1333,11 @@
   GDL, SMOKE, SO2, NOX</t>
   </si>
   <si>
-    <t>rl_fuel_rldd.RL_JH_YDXQMX</t>
-  </si>
-  <si>
     <t xml:space="preserve"> RLDD.RL_JH_YDXQMX</t>
   </si>
   <si>
     <t xml:space="preserve"> ID, YDXQ_ID, FENQI_ID, FDL, FDBMH, FDBML, GRL, GRBMH, GRBML, CCSH, QTY, REZHI, HFF, 
 LIUFEN, YCKC, YMKC, XQSL, HTSX, CGQY, RNO, GDBMH, CLBDC, YDZHSWDJ, GDL, GDBML, MZ,CREATOR_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID, YDXQ_ID, FENQI_ID, FDL, FDBMH, FDBML, GRL, GRBMH, GRBML, CCSH, QTY, REZHI, HFF, 
-LIUFEN, YCKC, YMKC, XQSL, HTSX, CGQY, RNO, GDBMH, CLBDC, YDZHSWDJ, GDL, GDBML, MZ,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
   </si>
   <si>
     <t xml:space="preserve">  ID, ORGID,ORGID#ORGLAYER, CGYF, YJHSL, YJHRZ, YJHHFF, YJHLF, CZR, CZSJ, STATUS, BZ, CGNF,  
@@ -1581,18 +1460,6 @@
        OPTYPE,  
        GX_STATUS,
        IS_EDIT </t>
-  </si>
-  <si>
-    <t>ID,
-ZDXXWHID,
-ZDXXWHNAME,
-S_CREATOR_ORG,type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ID,zdid,ZDNAME,kdid ,type=rldd.r_Dm_t_Orc.Dm_t_Ocl_PowerDz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ID,
@@ -1799,13 +1666,25 @@
    DQID</t>
   </si>
   <si>
+    <t>ID,
+         NAME,
+         BM,
+         PARENTID,
+         PARENTNAME,
+         DQNAME,
+         TYPE,
+         XZ,
+         JD,
+         WD,
+         SFQY,
+         SFLS,
+         MAXTRANSPORT,
+         AVGTRANSPORT,
+         LAYER,
+         DQID</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ID, ZDID, ZDNAME, KDNAME, KDID, CREATETIME, TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID, GYSID, MKXXGLID, GYSNAME, KDNAME </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID, GYSID, kdid, GYSNAME, KDNAME </t>
   </si>
   <si>
     <t xml:space="preserve">ID,
@@ -2708,10 +2587,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ID, ORGID, ORGNAME, ORGID#ORGLAYER, YF, FILEID, FJNAME, STATUS, DCSL, CCSBTIME, ZHSBTIME, PPD, JQPJJG, XTPPD, SCSJ,  CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>ID, ORGID, ORGNAME, ORGLAYER=rldd.r_Dm_t_Orc.f_Get_Orgidtoorglayer, YF, FILEID, FJNAME,
 status=rldd.r_Dm_t_Orc.Dm_t_Ocl_Sbstatus_ext ,DCSL,CCSBTIME, ZHSBTIME, 
 PPD, JQPJJG,XTPPD, SCSJ, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
@@ -2785,46 +2660,231 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>RL_FUEL_RLDD.RL_GYSGL_GYSXX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"true","field":"status","field_value":"100103#0"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_JH_NDXQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_JH_NDXQMX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_JH_YDXQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl_fuel_rldd.RL_JH_YDXQMX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"true","field":"S_PROC_STATE","field_value":"100103#0"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id,
+Createuser,
+Createtime=r_Dm_t_Orc.Dm_t_Ocl_Date,
+Updateuser,
+Updatetime=r_Dm_t_Orc.Dm_t_Ocl_Date,
+status=r_Dm_t_Orc.Dm_t_Ocl_Status, 
+Orgid,
+Orglayer,
+Orgname,
+Jbr,
+Lxdh,
+Sqrq=r_Dm_t_Orc.Dm_t_Ocl_Date,
+Bcsqkcqzzl,
+Nljkczl,
+Nljqlcs,
+Nljsqcs,
+Rcsykchj,
+Zwqllhj,
+Bcsqkclhj,
+Spfj,
+Memo,
+Zcfj1,
+Zcfj2,
+Zcfj3,
+Zcfj4,
+Audit_End_Time=r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,S_PARENT_ID#ORGID,S_PARENT_ID#ORGNAME,S_PARENT_ID#orglayer,gysid,gysname,s_create_time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,orgid=rldd.r_Dm_t_Orc.f_Get_Jzpidtooid,orgname=rldd.r_Dm_t_Orc.f_Get_Jzpidtoname,orglayer=rldd.r_Dm_t_Orc.f_Get_Jzpidtolayer,gysid,gysname,createtime=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.RL_DCZDGXWHB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_GYSGL_KDZD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_GYSGL_GYSKD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, GYSID, MKXXGLID, GYSNAME, KDNAME,S_CREATE_TIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, GYSID, kdid, GYSNAME, KDNAME,CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_FUEL_RLDD.Rl_Zhgl_Rlhb_Dcjcxxgl_Zb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rldd.Rl_Zhgl_Rlhb_Dcjcxxgl_Zb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id,
+Dcjcxxid,
+Orgid=r_Dm_t_Orc.f_Get_Jzpidtooid,
+Orgname=r_Dm_t_Orc.f_Get_Jzpidtoname,
+Orglayer=r_Dm_t_Orc.f_Get_Jzpidtolayer,
+Jz,
+Mz,
+Vdafbottom,
+Vdaftop,
+Stdtop,
+Qs,
+Zjrl,
+Fdmh,
+Cydl,
+Rlmdwfrl,
+Yml,
+Sjmzfrl,
+Sjmzql,
+So2,
+Nox,
+Smoke</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id,
+s_Parent_Id,
+s_Parent_Id#Orgid,
+s_Parent_Id#Orgname,
+s_Parent_Id#Orglayer,
+FDJZ,
+MZID,
+Vdafbottom,
+Vdaftop,
+Stdtop,
+Qs,
+Zjrl,
+SJFDHM,
+Cydl,
+Rlmdwfrl,
+xql,
+Sjmzfrl,
+Sjmzql,
+So2,
+Nox,
+Smoke</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLDD.RL_LDGK_QTHY_JZQD_YMDE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, S_CREATOR_NAME, S_CREATE_TIME, MODIFY_NAME, S_UPDATE_TIME, JZRL, DXQDDE, QTJXQDDE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGLAYER, DW, YF, FILEID, HTBH, GYS, YSFS, SJDHL, SJLMFRL, SJLMHFF, 
+SJLMLF, SJLMKJ, SJLMYF, SJLMQTF, SJLMDCJ, SJLMHSBD, SJLMBHSBD, JSDBH, MZLX, MZ, MZSYS, REMARK, 
+ISAGREE, DJFS, FZGS, FJ, DJ, FZ, DZ, FHDW, SHDW, VARIETY, HY,FKID, GYSID, FZID, DZID, 
+FJID, DJID, FHDWID, SHDWID, VARIETYID, YSFSID, DWID, MZID, CREATEUSER, CREATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date, UPDATEUSER, 
+UPDATETIME=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.RL_HTGL_JHDXQK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ID,zdid,ZDNAME,kdid=r_Dm_t_Orc.f_Get_Jzpidtooid,type=rldd.r_Dm_t_Orc.Dm_t_Ocl_PowerDz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>ID,
-         NAME,
-         BM,
-         PARENTID,
-         PARENTNAME,
-         DQNAME,
-         TYPE,
-         XZ,
-         JD,
-         WD,
-         SFQY,
-         SFLS,
-         MAXTRANSPORT,
-         AVGTRANSPORT,
-         LAYER,
-         DQID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK_DETAIL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rldd.RL_HTGL_JHDXQK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RL_FUEL_RLDD.RL_DYGL_JHDXQK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID, ORGID, ORGNAME, ORGLAYER, DW, YF, FILEID, HTBH, GYS, YSFS, SJDHL, SJLMFRL, SJLMHFF, SJLMLF, SJLMKJ, SJLMYF, SJLMQTF, SJLMDCJ, SJLMHSBD, SJLMBHSBD, JSDBH, MZLX, MZ, MZSYS, REMARK, ISAGREE, DJFS, FZGS, FJ, DJ, FZ, DZ, FHDW, SHDW, VARIETY, HY, JHDXQKID, GYSID, FZID, DZID, FJID, DJID, FHDWID, SHDWID, VARIETYID, YSFSID, DWID, MZID, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"master":"false","master_tab":"RL_FUEL_RLDD.RL_DYGL_JHDXQK","master_field":"status","master_value":"3#2","relation_field":"JHDXQKID"}</t>
+ZDXXWHID,
+ZDXXWHNAME,
+s_parent_id#kdid,type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGID#ORGLAYER, YF, ID#FILEID, FJNAME, STATUS, DCSL, CCSBTIME, ZHSBTIME, PPD, JQPJJG, XTPPD, SCSJ,  CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID, ORGID, ORGNAME, ORGLAYER, DW, YF, JHDXQKID#FILEID, HTBH, GYS, YSFS, SJDHL, SJLMFRL, SJLMHFF, SJLMLF, SJLMKJ, SJLMYF, SJLMQTF, SJLMDCJ, SJLMHSBD, SJLMBHSBD, JSDBH, MZLX, MZ, MZSYS, REMARK, ISAGREE, DJFS, FZGS, FJ, DJ, FZ, DZ, FHDW, SHDW, VARIETY, HY, JHDXQKID, GYSID, FZID, DZID, JHDXQKID#FJID, DJID, FHDWID, SHDWID, VARIETYID, YSFSID, DWID, MZID, CREATEUSER, CREATETIME, UPDATEUSER, UPDATETIME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rldd.rl_rljy_xsmpcjhrbb_zb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID, YDXQ_ID, FENQI_ID, FDL, FDBMH, FDBML, GRL, GRBMH, GRBML, CCSH, QTY, REZHI, HFF, 
+LIUFEN, YCKC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, YMKC=rldd.r_Dm_t_Orc.Dm_t_Ocl_DefaultNumber, XQSL, HTSX, CGQY, RNO, GDBMH, CLBDC, YDZHSWDJ, GDL, GDBML, MZ,DT=rldd.r_Dm_t_Orc.Dm_t_Ocl_Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"true","field":"status","field_value":"100103#0",children:[
+		{"tab_name":"rl_fuel_rldd.RL_JH_XSMXQJH_ZB","children":[],"relation_field":"FOREIGNID"}]}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{"master":"true","field":"status","field_value":"3#2",children:[
+		{"tab_name":"RL_FUEL_RLDD.RL_DYGL_JHDXQK_DETAIL","children":[],"relation_field":"JHDXQKID"}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"true","field":"status","field_value":"100103#-999",children:[
+		{"tab_name":"rl_fuel_rldd.RL_JH_YDXQMX","children":[],"relation_field":"YDXQ_ID"}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"true","field":"status","field_value":"100103#-999",children:[
+		{"tab_name":"RL_FUEL_RLDD.RL_JH_NDXQMX","children":[],"relation_field":"NDXQ_ID"}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"false","field":"status","field_value":"100103#-999","tab_name":"RL_FUEL_RLDD.RL_JH_YDXQ","children":[{"tab_name":" RL_FUEL_RLDD.RL_JH_YDXQMX","children":[],"relation_field":"YDXQ_ID"}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"false","field":"status","field_value":"100103#0","tab_name":"rl_fuel_rldd.RL_JH_XSMXQJH",children:[
+		{"tab_name":"rl_fuel_rldd.RL_JH_XSMXQJH_ZB","children":[],"relation_field":"FOREIGNID"}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"false","field":"status","field_value":"100103#-999","tab_name":"RL_FUEL_RLDD.RL_JH_NDXQ",children:[
+		{"tab_name":"RL_FUEL_RLDD.RL_JH_NDXQMX","children":[],"relation_field":"NDXQ_ID"}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"master":"false","field":"status","field_value":"3#2","tab_name":"RL_FUEL_RLDD.RL_DYGL_JHDXQK",children:[
 		{"tab_name":"RL_FUEL_RLDD.RL_DYGL_JHDXQK_DETAIL","children":[],"relation_field":"JHDXQKID"}]}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3014,7 +3074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3092,6 +3152,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3410,17 +3476,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="C39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" customWidth="1"/>
     <col min="6" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3438,7 +3504,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1">
@@ -3449,944 +3515,976 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="20" customFormat="1" ht="57.75" customHeight="1">
       <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="20" customFormat="1" ht="27.6">
+      <c r="A7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="57" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="20" customFormat="1" ht="41.4">
-      <c r="A7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="20" customFormat="1" ht="27.6">
-      <c r="A8" s="18" t="s">
-        <v>12</v>
-      </c>
       <c r="B8" s="19" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="20" customFormat="1" ht="47.25" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="20" customFormat="1" ht="29.25" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="126.75" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="20" customFormat="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="20" customFormat="1" ht="92.25" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="22" customFormat="1" ht="45.75" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>216</v>
+        <v>196</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="22" customFormat="1" ht="42.75" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>242</v>
+        <v>222</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="20" customFormat="1" ht="60" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="39" customHeight="1">
       <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="20" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="20" customFormat="1" ht="51" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="20" customFormat="1" ht="63" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="20" customFormat="1" ht="39" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1">
+      <c r="A22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C22" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="20" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="20" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="C24" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="22" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="20" customFormat="1" ht="51" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="D26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="19" t="s">
+    </row>
+    <row r="27" spans="1:5" s="22" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A27" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="58.5" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="20" customFormat="1" ht="63" customHeight="1">
-      <c r="A20" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="20" customFormat="1" ht="39" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="20" customFormat="1" ht="45" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="D28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="19" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="115.5" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="20" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="20" customFormat="1" ht="45" customHeight="1">
-      <c r="A24" s="18" t="s">
+      <c r="D29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="19" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="54.75" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="72" customHeight="1">
+      <c r="A31" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="73.5" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="22" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A25" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="42.75" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="22" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A27" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="58.5" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="115.5" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="54.75" customHeight="1">
-      <c r="A30" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="72" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="73.5" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="82.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="67.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="135" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="73.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="20" customFormat="1" ht="106.5" customHeight="1">
       <c r="A37" s="18" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="116.4" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="106.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="106.5" customHeight="1">
       <c r="A39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>269</v>
+        <v>264</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="106.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" ht="91.5" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="91.5" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="91.5" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="91.5" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="E44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="91.5" customHeight="1">
       <c r="A45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="302.39999999999998">
+      <c r="A46" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="273.60000000000002">
+      <c r="A47" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="331.2">
+      <c r="A48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="5" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="273.60000000000002">
+      <c r="A49" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="331.2">
-      <c r="A46" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="316.8">
-      <c r="A47" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="360">
-      <c r="A48" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="316.8">
-      <c r="A49" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="409.6">
       <c r="A50" s="13" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="409.6">
       <c r="A51" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="388.8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="374.4">
       <c r="A52" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="374.4">
       <c r="A53" s="13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="409.6">
       <c r="A54" s="13" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="86.4">
       <c r="A55" s="13" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="409.6">
       <c r="A56" s="13" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="374.4">
       <c r="A57" s="13" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="409.6">
       <c r="A58" s="13" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="216">
       <c r="A59" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="72">
+      <c r="A60" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="360">
+      <c r="A61" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="244.8">
+      <c r="A62" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="86.4">
-      <c r="A60" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="388.8">
-      <c r="A61" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="273.60000000000002">
-      <c r="A62" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="273.60000000000002">
       <c r="A63" s="13" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="43.2">
       <c r="A64" s="13" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="158.4">
       <c r="A65" s="13" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="409.6">
       <c r="A66" s="13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="115.2">
       <c r="A67" s="13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="259.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="230.4">
       <c r="A68" s="13" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>